--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_laag.xlsx
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7150789356003348</v>
+        <v>0.7150789356003346</v>
       </c>
       <c r="C2">
         <v>0.9510938092533626</v>
@@ -412,7 +412,7 @@
         <v>0.7971071188531879</v>
       </c>
       <c r="F2">
-        <v>0.6770604099031926</v>
+        <v>0.6770604099031927</v>
       </c>
       <c r="G2">
         <v>0.7986090645082277</v>
@@ -461,16 +461,16 @@
         <v>0.4285408523831185</v>
       </c>
       <c r="E4">
-        <v>0.7382178538040829</v>
+        <v>0.738217853804083</v>
       </c>
       <c r="F4">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="G4">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="H4">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -490,13 +490,13 @@
         <v>0.7382178538040831</v>
       </c>
       <c r="F5">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="G5">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="H5">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -513,16 +513,16 @@
         <v>0.4285408523831185</v>
       </c>
       <c r="E6">
-        <v>0.738217853804083</v>
+        <v>0.7382178538040831</v>
       </c>
       <c r="F6">
-        <v>0.5932758831987774</v>
+        <v>0.5932758831987773</v>
       </c>
       <c r="G6">
-        <v>0.7467939993372656</v>
+        <v>0.7467939993372658</v>
       </c>
       <c r="H6">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -539,13 +539,13 @@
         <v>0.7230411760821516</v>
       </c>
       <c r="E7">
-        <v>0.7248120343360605</v>
+        <v>0.7248120343360603</v>
       </c>
       <c r="F7">
-        <v>0.69720711251173</v>
+        <v>0.6972071125117298</v>
       </c>
       <c r="G7">
-        <v>0.7189754792019948</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="H7">
         <v>0.7014268022167574</v>
@@ -559,19 +559,19 @@
         <v>0.7274775144404748</v>
       </c>
       <c r="C8">
-        <v>0.7767404571493538</v>
+        <v>0.776740457149354</v>
       </c>
       <c r="D8">
         <v>0.7230411760821516</v>
       </c>
       <c r="E8">
-        <v>0.7248120343360605</v>
+        <v>0.7248120343360603</v>
       </c>
       <c r="F8">
-        <v>0.69720711251173</v>
+        <v>0.6972071125117298</v>
       </c>
       <c r="G8">
-        <v>0.7189754792019947</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="H8">
         <v>0.7014268022167574</v>
@@ -611,16 +611,16 @@
         <v>0.7274775144404749</v>
       </c>
       <c r="C10">
-        <v>0.7767404571493538</v>
+        <v>0.7767404571493539</v>
       </c>
       <c r="D10">
         <v>0.7230411760821517</v>
       </c>
       <c r="E10">
-        <v>0.7248120343360605</v>
+        <v>0.7248120343360603</v>
       </c>
       <c r="F10">
-        <v>0.6972071125117301</v>
+        <v>0.69720711251173</v>
       </c>
       <c r="G10">
         <v>0.7189754792019948</v>
@@ -646,10 +646,10 @@
         <v>0.7248120343360605</v>
       </c>
       <c r="F11">
-        <v>0.6972071125117301</v>
+        <v>0.6972071125117298</v>
       </c>
       <c r="G11">
-        <v>0.7189754792019948</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="H11">
         <v>0.7014268022167574</v>
@@ -669,16 +669,16 @@
         <v>0.5102062335506596</v>
       </c>
       <c r="E12">
-        <v>0.6996128980519531</v>
+        <v>0.6996128980519534</v>
       </c>
       <c r="F12">
-        <v>0.6061705156093438</v>
+        <v>0.6061705156093437</v>
       </c>
       <c r="G12">
         <v>0.7133845605892403</v>
       </c>
       <c r="H12">
-        <v>0.6732976186714824</v>
+        <v>0.6732976186714825</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -695,7 +695,7 @@
         <v>0.6775003061548949</v>
       </c>
       <c r="E13">
-        <v>0.8188933688926727</v>
+        <v>0.8188933688926726</v>
       </c>
       <c r="F13">
         <v>0.6691968286166545</v>
@@ -712,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.6328809129374655</v>
+        <v>0.6328809129374656</v>
       </c>
       <c r="C14">
         <v>0.8438106936544495</v>
@@ -730,7 +730,7 @@
         <v>0.7133845605892403</v>
       </c>
       <c r="H14">
-        <v>0.6732976186714824</v>
+        <v>0.6732976186714825</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -741,7 +741,7 @@
         <v>0.7274775144404749</v>
       </c>
       <c r="C15">
-        <v>0.7767404571493538</v>
+        <v>0.776740457149354</v>
       </c>
       <c r="D15">
         <v>0.7230411760821517</v>
@@ -753,7 +753,7 @@
         <v>0.6972071125117301</v>
       </c>
       <c r="G15">
-        <v>0.7189754792019949</v>
+        <v>0.718975479201995</v>
       </c>
       <c r="H15">
         <v>0.7014268022167574</v>
@@ -764,13 +764,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.7505141991000419</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C16">
-        <v>0.7231540553317158</v>
+        <v>0.7231540553317161</v>
       </c>
       <c r="D16">
-        <v>0.5935230731814897</v>
+        <v>0.5935230731814898</v>
       </c>
       <c r="E16">
         <v>0.7131731751472505</v>
@@ -799,16 +799,16 @@
         <v>0.5102062335506595</v>
       </c>
       <c r="E17">
-        <v>0.6996128980519533</v>
+        <v>0.6996128980519534</v>
       </c>
       <c r="F17">
-        <v>0.6061705156093438</v>
+        <v>0.6061705156093437</v>
       </c>
       <c r="G17">
-        <v>0.7133845605892402</v>
+        <v>0.7133845605892403</v>
       </c>
       <c r="H17">
-        <v>0.6732976186714824</v>
+        <v>0.6732976186714825</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -819,7 +819,7 @@
         <v>0.6939608913917322</v>
       </c>
       <c r="C18">
-        <v>1.014853356731867</v>
+        <v>1.014853356731868</v>
       </c>
       <c r="D18">
         <v>0.6775003061548949</v>
@@ -842,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.750514199100042</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C19">
         <v>0.7231540553317158</v>
@@ -868,10 +868,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.750514199100042</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C20">
-        <v>0.723154055331716</v>
+        <v>0.7231540553317158</v>
       </c>
       <c r="D20">
         <v>0.5935230731814898</v>
@@ -880,7 +880,7 @@
         <v>0.7131731751472505</v>
       </c>
       <c r="F20">
-        <v>0.7063684421094018</v>
+        <v>0.7063684421094019</v>
       </c>
       <c r="G20">
         <v>0.6555733883742376</v>
@@ -894,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.7505141991000419</v>
+        <v>0.7505141991000418</v>
       </c>
       <c r="C21">
         <v>0.7231540553317158</v>
@@ -929,16 +929,16 @@
         <v>0.1966408209297885</v>
       </c>
       <c r="E22">
-        <v>0.9525919504975194</v>
+        <v>0.9525919504975193</v>
       </c>
       <c r="F22">
-        <v>0.7067773844880969</v>
+        <v>0.7067773844880967</v>
       </c>
       <c r="G22">
         <v>0.8766936786148358</v>
       </c>
       <c r="H22">
-        <v>0.8830008605244345</v>
+        <v>0.8830008605244344</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -946,7 +946,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.7150789356003348</v>
+        <v>0.7150789356003346</v>
       </c>
       <c r="C23">
         <v>0.9510938092533625</v>
@@ -958,13 +958,13 @@
         <v>0.7971071188531877</v>
       </c>
       <c r="F23">
-        <v>0.6770604099031926</v>
+        <v>0.6770604099031927</v>
       </c>
       <c r="G23">
         <v>0.7986090645082277</v>
       </c>
       <c r="H23">
-        <v>0.7615678895872259</v>
+        <v>0.7615678895872258</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -972,19 +972,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.5524379965583723</v>
+        <v>0.5524379965583724</v>
       </c>
       <c r="C24">
-        <v>0.7907492638881192</v>
+        <v>0.7907492638881193</v>
       </c>
       <c r="D24">
-        <v>0.3816062638918192</v>
+        <v>0.3816062638918193</v>
       </c>
       <c r="E24">
         <v>0.6458855694680223</v>
       </c>
       <c r="F24">
-        <v>0.516375247254754</v>
+        <v>0.5163752472547539</v>
       </c>
       <c r="G24">
         <v>0.6527642515784129</v>
@@ -998,10 +998,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.5524379965583724</v>
+        <v>0.5524379965583726</v>
       </c>
       <c r="C25">
-        <v>0.7907492638881194</v>
+        <v>0.7907492638881195</v>
       </c>
       <c r="D25">
         <v>0.3816062638918193</v>
@@ -1016,7 +1016,7 @@
         <v>0.6527642515784129</v>
       </c>
       <c r="H25">
-        <v>0.6132244198585969</v>
+        <v>0.6132244198585968</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1024,10 +1024,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.5524379965583724</v>
+        <v>0.5524379965583726</v>
       </c>
       <c r="C26">
-        <v>0.7907492638881193</v>
+        <v>0.7907492638881194</v>
       </c>
       <c r="D26">
         <v>0.3816062638918193</v>
@@ -1036,13 +1036,13 @@
         <v>0.6458855694680223</v>
       </c>
       <c r="F26">
-        <v>0.516375247254754</v>
+        <v>0.5163752472547539</v>
       </c>
       <c r="G26">
         <v>0.6527642515784129</v>
       </c>
       <c r="H26">
-        <v>0.6132244198585969</v>
+        <v>0.6132244198585968</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1053,10 +1053,10 @@
         <v>0.7615128660602036</v>
       </c>
       <c r="C27">
-        <v>0.9856327337692354</v>
+        <v>0.9856327337692357</v>
       </c>
       <c r="D27">
-        <v>0.3920141828620677</v>
+        <v>0.3920141828620678</v>
       </c>
       <c r="E27">
         <v>0.8171497776322553</v>
@@ -1079,7 +1079,7 @@
         <v>0.7615128660602036</v>
       </c>
       <c r="C28">
-        <v>0.9856327337692354</v>
+        <v>0.9856327337692357</v>
       </c>
       <c r="D28">
         <v>0.3920141828620677</v>
@@ -1105,7 +1105,7 @@
         <v>0.7615128660602037</v>
       </c>
       <c r="C29">
-        <v>0.9856327337692354</v>
+        <v>0.9856327337692359</v>
       </c>
       <c r="D29">
         <v>0.3920141828620677</v>
@@ -1143,7 +1143,7 @@
         <v>0.8074863236585849</v>
       </c>
       <c r="G30">
-        <v>0.768700551433431</v>
+        <v>0.7687005514334309</v>
       </c>
       <c r="H30">
         <v>0.7650290339432813</v>
@@ -1163,7 +1163,7 @@
         <v>0.9223969067224395</v>
       </c>
       <c r="E31">
-        <v>0.7494133231036466</v>
+        <v>0.7494133231036465</v>
       </c>
       <c r="F31">
         <v>0.8074863236585846</v>
@@ -1180,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.7855894980242882</v>
+        <v>0.7855894980242883</v>
       </c>
       <c r="C32">
         <v>1.037022958236438</v>
@@ -1198,7 +1198,7 @@
         <v>0.8863973077207508</v>
       </c>
       <c r="H32">
-        <v>0.8328714505414114</v>
+        <v>0.8328714505414115</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1206,7 +1206,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.7871029011253692</v>
+        <v>0.7871029011253694</v>
       </c>
       <c r="C33">
         <v>0.715124162554732</v>
@@ -1221,10 +1221,10 @@
         <v>0.8074863236585846</v>
       </c>
       <c r="G33">
-        <v>0.7687005514334311</v>
+        <v>0.768700551433431</v>
       </c>
       <c r="H33">
-        <v>0.7650290339432811</v>
+        <v>0.7650290339432813</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1232,7 +1232,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.876117890736723</v>
+        <v>0.8761178907367227</v>
       </c>
       <c r="C34">
         <v>1.548528489494135</v>
@@ -1258,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.9135821952456218</v>
+        <v>0.9135821952456219</v>
       </c>
       <c r="C35">
         <v>1.471705664779174</v>
@@ -1270,7 +1270,7 @@
         <v>1.051760885820329</v>
       </c>
       <c r="F35">
-        <v>0.8870458969766211</v>
+        <v>0.887045896976621</v>
       </c>
       <c r="G35">
         <v>1.091732689639349</v>
@@ -1287,7 +1287,7 @@
         <v>0.7010544255394701</v>
       </c>
       <c r="C36">
-        <v>0.8022288457494623</v>
+        <v>0.8022288457494624</v>
       </c>
       <c r="D36">
         <v>0.7758027274102514</v>
@@ -1296,13 +1296,13 @@
         <v>0.7142085516476026</v>
       </c>
       <c r="F36">
-        <v>0.7178968527387888</v>
+        <v>0.7178968527387889</v>
       </c>
       <c r="G36">
         <v>0.7503275444722174</v>
       </c>
       <c r="H36">
-        <v>0.7239910358167407</v>
+        <v>0.7239910358167408</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1310,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8338752236800738</v>
+        <v>0.8338752236800739</v>
       </c>
       <c r="C37">
         <v>0.6913064944701471</v>
@@ -1322,13 +1322,13 @@
         <v>0.7733083108464334</v>
       </c>
       <c r="F37">
-        <v>0.8443187564018223</v>
+        <v>0.8443187564018224</v>
       </c>
       <c r="G37">
-        <v>0.7753465209966993</v>
+        <v>0.7753465209966992</v>
       </c>
       <c r="H37">
-        <v>0.7854052542282571</v>
+        <v>0.7854052542282572</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1336,7 +1336,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.8338752236800738</v>
+        <v>0.8338752236800739</v>
       </c>
       <c r="C38">
         <v>0.6913064944701471</v>
@@ -1351,7 +1351,7 @@
         <v>0.8443187564018223</v>
       </c>
       <c r="G38">
-        <v>0.7753465209966993</v>
+        <v>0.7753465209966992</v>
       </c>
       <c r="H38">
         <v>0.7854052542282571</v>
@@ -1362,7 +1362,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.910858182394006</v>
+        <v>0.9108581823940058</v>
       </c>
       <c r="C39">
         <v>1.117375380511207</v>
@@ -1371,7 +1371,7 @@
         <v>0.8656970752738576</v>
       </c>
       <c r="E39">
-        <v>0.9321591389655349</v>
+        <v>0.932159138965535</v>
       </c>
       <c r="F39">
         <v>0.8900622408431595</v>
@@ -1388,7 +1388,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.914465608441549</v>
+        <v>0.9144656084415491</v>
       </c>
       <c r="C40">
         <v>1.597217161144235</v>
@@ -1397,13 +1397,13 @@
         <v>0.5835636565468924</v>
       </c>
       <c r="E40">
-        <v>1.097459955619619</v>
+        <v>1.09745995561962</v>
       </c>
       <c r="F40">
         <v>0.8761613167847885</v>
       </c>
       <c r="G40">
-        <v>1.129408309971416</v>
+        <v>1.129408309971417</v>
       </c>
       <c r="H40">
         <v>1.052564560777903</v>
@@ -1414,7 +1414,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.9135821952456218</v>
+        <v>0.9135821952456219</v>
       </c>
       <c r="C41">
         <v>1.471705664779174</v>
@@ -1426,7 +1426,7 @@
         <v>1.051760885820329</v>
       </c>
       <c r="F41">
-        <v>0.8870458969766211</v>
+        <v>0.887045896976621</v>
       </c>
       <c r="G41">
         <v>1.091732689639349</v>
@@ -1458,7 +1458,7 @@
         <v>0.8455970313622491</v>
       </c>
       <c r="H42">
-        <v>0.7970906343894081</v>
+        <v>0.7970906343894083</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1475,7 +1475,7 @@
         <v>0.7982681174214451</v>
       </c>
       <c r="E43">
-        <v>0.8863347281784658</v>
+        <v>0.8863347281784659</v>
       </c>
       <c r="F43">
         <v>0.757194188111128</v>
@@ -1484,7 +1484,7 @@
         <v>0.9933977035260185</v>
       </c>
       <c r="H43">
-        <v>0.878717880356835</v>
+        <v>0.8787178803568351</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1501,7 +1501,7 @@
         <v>0.4653612575799836</v>
       </c>
       <c r="E44">
-        <v>0.8644688719841752</v>
+        <v>0.8644688719841753</v>
       </c>
       <c r="F44">
         <v>0.6086473211342633</v>
@@ -1510,7 +1510,7 @@
         <v>0.9246175786960195</v>
       </c>
       <c r="H44">
-        <v>0.8368165216367234</v>
+        <v>0.8368165216367236</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1521,16 +1521,16 @@
         <v>0.7203791701957224</v>
       </c>
       <c r="C45">
-        <v>0.8584530207135065</v>
+        <v>0.8584530207135064</v>
       </c>
       <c r="D45">
         <v>0.7502064427278866</v>
       </c>
       <c r="E45">
-        <v>0.731548337596054</v>
+        <v>0.7315483375960538</v>
       </c>
       <c r="F45">
-        <v>0.7256055114657837</v>
+        <v>0.7256055114657838</v>
       </c>
       <c r="G45">
         <v>0.761540942979532</v>
@@ -1544,10 +1544,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8324844901991443</v>
+        <v>0.8324844901991444</v>
       </c>
       <c r="C46">
-        <v>1.01289936563613</v>
+        <v>1.012899365636131</v>
       </c>
       <c r="D46">
         <v>0.8695188791068352</v>
@@ -1582,7 +1582,7 @@
         <v>0.830019982533276</v>
       </c>
       <c r="F47">
-        <v>0.6613619286415678</v>
+        <v>0.661361928641568</v>
       </c>
       <c r="G47">
         <v>0.8953707521694603</v>
@@ -1611,7 +1611,7 @@
         <v>0.6991404323744757</v>
       </c>
       <c r="G48">
-        <v>0.903116982375661</v>
+        <v>0.9031169823756611</v>
       </c>
       <c r="H48">
         <v>0.8083500016715834</v>
@@ -1634,7 +1634,7 @@
         <v>0.7078711450096543</v>
       </c>
       <c r="F49">
-        <v>0.6799097749129461</v>
+        <v>0.6799097749129462</v>
       </c>
       <c r="G49">
         <v>0.6808154381828094</v>
@@ -1648,10 +1648,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.7097191774688542</v>
+        <v>0.709719177468854</v>
       </c>
       <c r="C50">
-        <v>0.8748387367307755</v>
+        <v>0.8748387367307756</v>
       </c>
       <c r="D50">
         <v>0.7853282020554838</v>
@@ -1677,7 +1677,7 @@
         <v>0.5465470986898104</v>
       </c>
       <c r="C51">
-        <v>0.8069229011038347</v>
+        <v>0.8069229011038349</v>
       </c>
       <c r="D51">
         <v>0.6290548704997694</v>
@@ -1686,7 +1686,7 @@
         <v>0.6605238636369962</v>
       </c>
       <c r="F51">
-        <v>0.5434823831423141</v>
+        <v>0.5434823831423142</v>
       </c>
       <c r="G51">
         <v>0.6916310508424267</v>
@@ -1703,7 +1703,7 @@
         <v>0.5320991279856568</v>
       </c>
       <c r="C52">
-        <v>0.858246689382217</v>
+        <v>0.8582466893822172</v>
       </c>
       <c r="D52">
         <v>0.5284810526596115</v>
@@ -1715,7 +1715,7 @@
         <v>0.515142873936873</v>
       </c>
       <c r="G52">
-        <v>0.7102251837627088</v>
+        <v>0.7102251837627089</v>
       </c>
       <c r="H52">
         <v>0.6573353664922749</v>
@@ -1726,7 +1726,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.6274933104751181</v>
+        <v>0.627493310475118</v>
       </c>
       <c r="C53">
         <v>0.6172542915224656</v>
@@ -1735,13 +1735,13 @@
         <v>0.71476817491677</v>
       </c>
       <c r="E53">
-        <v>0.6157653902279803</v>
+        <v>0.6157653902279804</v>
       </c>
       <c r="F53">
         <v>0.6181374039569909</v>
       </c>
       <c r="G53">
-        <v>0.5988328556415901</v>
+        <v>0.5988328556415903</v>
       </c>
       <c r="H53">
         <v>0.6030065380005259</v>
@@ -1758,7 +1758,7 @@
         <v>0.6042471548668206</v>
       </c>
       <c r="D54">
-        <v>0.6779553125570512</v>
+        <v>0.6779553125570511</v>
       </c>
       <c r="E54">
         <v>0.5808309016900804</v>
@@ -1767,7 +1767,7 @@
         <v>0.571588203141472</v>
       </c>
       <c r="G54">
-        <v>0.5678124218590989</v>
+        <v>0.567812421859099</v>
       </c>
       <c r="H54">
         <v>0.5679141107015936</v>
@@ -1778,13 +1778,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.7097191774688543</v>
+        <v>0.709719177468854</v>
       </c>
       <c r="C55">
-        <v>0.8748387367307754</v>
+        <v>0.8748387367307756</v>
       </c>
       <c r="D55">
-        <v>0.7853282020554837</v>
+        <v>0.7853282020554838</v>
       </c>
       <c r="E55">
         <v>0.7579061137045814</v>
@@ -1804,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.7666417683945164</v>
+        <v>0.7666417683945163</v>
       </c>
       <c r="C56">
         <v>1.036137455399406</v>
@@ -1813,7 +1813,7 @@
         <v>0.6064008842178195</v>
       </c>
       <c r="E56">
-        <v>0.8468326078377891</v>
+        <v>0.8468326078377892</v>
       </c>
       <c r="F56">
         <v>0.7224486730287843</v>
@@ -1830,19 +1830,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.5871703117701897</v>
+        <v>0.5871703117701899</v>
       </c>
       <c r="C57">
         <v>0.8934230277930615</v>
       </c>
       <c r="D57">
-        <v>0.4811737706528146</v>
+        <v>0.4811737706528147</v>
       </c>
       <c r="E57">
         <v>0.7202207170405482</v>
       </c>
       <c r="F57">
-        <v>0.5535178990298961</v>
+        <v>0.553517899029896</v>
       </c>
       <c r="G57">
         <v>0.7248838324195221</v>
@@ -1862,7 +1862,7 @@
         <v>0.9872957545986477</v>
       </c>
       <c r="D58">
-        <v>0.5160808785595501</v>
+        <v>0.5160808785595502</v>
       </c>
       <c r="E58">
         <v>0.8395227642861212</v>
@@ -1885,16 +1885,16 @@
         <v>0.8404467891965397</v>
       </c>
       <c r="C59">
-        <v>0.9872957545986477</v>
+        <v>0.9872957545986478</v>
       </c>
       <c r="D59">
-        <v>0.5160808785595501</v>
+        <v>0.5160808785595502</v>
       </c>
       <c r="E59">
         <v>0.8395227642861212</v>
       </c>
       <c r="F59">
-        <v>0.7695238305907963</v>
+        <v>0.7695238305907964</v>
       </c>
       <c r="G59">
         <v>0.7991229303159209</v>
@@ -1911,13 +1911,13 @@
         <v>0.6254737944543216</v>
       </c>
       <c r="C60">
-        <v>0.7439424166339579</v>
+        <v>0.743942416633958</v>
       </c>
       <c r="D60">
         <v>0.3935928856556132</v>
       </c>
       <c r="E60">
-        <v>0.6289501172119765</v>
+        <v>0.6289501172119766</v>
       </c>
       <c r="F60">
         <v>0.5688083408219321</v>
@@ -1937,19 +1937,19 @@
         <v>0.6254737944543216</v>
       </c>
       <c r="C61">
-        <v>0.7439424166339578</v>
+        <v>0.7439424166339579</v>
       </c>
       <c r="D61">
-        <v>0.3935928856556133</v>
+        <v>0.3935928856556131</v>
       </c>
       <c r="E61">
-        <v>0.6289501172119765</v>
+        <v>0.6289501172119766</v>
       </c>
       <c r="F61">
-        <v>0.568808340821932</v>
+        <v>0.5688083408219321</v>
       </c>
       <c r="G61">
-        <v>0.6146825042777286</v>
+        <v>0.614682504277729</v>
       </c>
       <c r="H61">
         <v>0.5935514539983425</v>
@@ -1960,22 +1960,22 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.3667792147974713</v>
+        <v>0.3667792147974712</v>
       </c>
       <c r="C62">
         <v>0.500968497253595</v>
       </c>
       <c r="D62">
-        <v>0.2386106051365705</v>
+        <v>0.2386106051365704</v>
       </c>
       <c r="E62">
         <v>0.418075954664583</v>
       </c>
       <c r="F62">
-        <v>0.3346300284418046</v>
+        <v>0.3346300284418045</v>
       </c>
       <c r="G62">
-        <v>0.4227279554736002</v>
+        <v>0.4227279554736003</v>
       </c>
       <c r="H62">
         <v>0.3978163139986889</v>
@@ -1986,7 +1986,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.3667792147974713</v>
+        <v>0.3667792147974712</v>
       </c>
       <c r="C63">
         <v>0.500968497253595</v>
@@ -1998,10 +1998,10 @@
         <v>0.418075954664583</v>
       </c>
       <c r="F63">
-        <v>0.3346300284418046</v>
+        <v>0.3346300284418045</v>
       </c>
       <c r="G63">
-        <v>0.4227279554736001</v>
+        <v>0.4227279554736002</v>
       </c>
       <c r="H63">
         <v>0.3978163139986889</v>
@@ -2021,16 +2021,16 @@
         <v>0.2526278112168283</v>
       </c>
       <c r="E64">
-        <v>0.327141867711696</v>
+        <v>0.3271418677116959</v>
       </c>
       <c r="F64">
-        <v>0.2305350604571148</v>
+        <v>0.2305350604571147</v>
       </c>
       <c r="G64">
-        <v>0.3437541029678432</v>
+        <v>0.3437541029678433</v>
       </c>
       <c r="H64">
-        <v>0.3117110038271689</v>
+        <v>0.311711003827169</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2047,7 +2047,7 @@
         <v>0.2526278112168284</v>
       </c>
       <c r="E65">
-        <v>0.327141867711696</v>
+        <v>0.3271418677116959</v>
       </c>
       <c r="F65">
         <v>0.2305350604571148</v>
@@ -2073,16 +2073,16 @@
         <v>0.7460341207829679</v>
       </c>
       <c r="E66">
-        <v>1.002737573670243</v>
+        <v>1.002737573670242</v>
       </c>
       <c r="F66">
-        <v>0.9064815164799664</v>
+        <v>0.9064815164799666</v>
       </c>
       <c r="G66">
         <v>0.9469224269581993</v>
       </c>
       <c r="H66">
-        <v>0.9538383639082134</v>
+        <v>0.9538383639082136</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2125,16 +2125,16 @@
         <v>0.7460341207829679</v>
       </c>
       <c r="E68">
-        <v>1.002737573670243</v>
+        <v>1.002737573670242</v>
       </c>
       <c r="F68">
         <v>0.9064815164799666</v>
       </c>
       <c r="G68">
-        <v>0.9469224269581993</v>
+        <v>0.9469224269581994</v>
       </c>
       <c r="H68">
-        <v>0.9538383639082133</v>
+        <v>0.9538383639082135</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2154,7 +2154,7 @@
         <v>1.140860332177532</v>
       </c>
       <c r="F69">
-        <v>0.8717658648493041</v>
+        <v>0.8717658648493043</v>
       </c>
       <c r="G69">
         <v>1.155913260664791</v>
@@ -2209,10 +2209,10 @@
         <v>0.8671033936050396</v>
       </c>
       <c r="G71">
-        <v>1.265105206487928</v>
+        <v>1.265105206487927</v>
       </c>
       <c r="H71">
-        <v>1.172296884464552</v>
+        <v>1.172296884464551</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2229,10 +2229,10 @@
         <v>0.5802148855047161</v>
       </c>
       <c r="E72">
-        <v>1.206186806946442</v>
+        <v>1.206186806946441</v>
       </c>
       <c r="F72">
-        <v>0.8403967231673921</v>
+        <v>0.8403967231673922</v>
       </c>
       <c r="G72">
         <v>1.210602383455083</v>
@@ -2255,7 +2255,7 @@
         <v>0.580214885504716</v>
       </c>
       <c r="E73">
-        <v>1.206186806946442</v>
+        <v>1.206186806946441</v>
       </c>
       <c r="F73">
         <v>0.8403967231673921</v>
@@ -2284,7 +2284,7 @@
         <v>1.206186806946442</v>
       </c>
       <c r="F74">
-        <v>0.8403967231673921</v>
+        <v>0.8403967231673922</v>
       </c>
       <c r="G74">
         <v>1.210602383455083</v>
@@ -2298,7 +2298,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.8208704556197061</v>
+        <v>0.8208704556197062</v>
       </c>
       <c r="C75">
         <v>1.218665515165784</v>
@@ -2307,16 +2307,16 @@
         <v>0.3825736274079893</v>
       </c>
       <c r="E75">
-        <v>0.9768559222323863</v>
+        <v>0.9768559222323858</v>
       </c>
       <c r="F75">
         <v>0.7371282097501587</v>
       </c>
       <c r="G75">
-        <v>0.9260694205645001</v>
+        <v>0.9260694205645003</v>
       </c>
       <c r="H75">
-        <v>0.9049844976528135</v>
+        <v>0.9049844976528134</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2336,7 +2336,7 @@
         <v>1.140860332177532</v>
       </c>
       <c r="F76">
-        <v>0.8717658648493039</v>
+        <v>0.8717658648493041</v>
       </c>
       <c r="G76">
         <v>1.155913260664791</v>
@@ -2356,7 +2356,7 @@
         <v>1.489071287300443</v>
       </c>
       <c r="D77">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="E77">
         <v>1.173553745558634</v>
@@ -2365,7 +2365,7 @@
         <v>0.8846238798633079</v>
       </c>
       <c r="G77">
-        <v>1.160315997153297</v>
+        <v>1.160315997153298</v>
       </c>
       <c r="H77">
         <v>1.088992267568352</v>
@@ -2382,7 +2382,7 @@
         <v>1.489071287300443</v>
       </c>
       <c r="D78">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="E78">
         <v>1.173553745558634</v>
@@ -2408,7 +2408,7 @@
         <v>1.489071287300443</v>
       </c>
       <c r="D79">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="E79">
         <v>1.173553745558634</v>
@@ -2417,7 +2417,7 @@
         <v>0.8846238798633078</v>
       </c>
       <c r="G79">
-        <v>1.160315997153297</v>
+        <v>1.160315997153298</v>
       </c>
       <c r="H79">
         <v>1.088992267568352</v>
@@ -2434,7 +2434,7 @@
         <v>1.489071287300443</v>
       </c>
       <c r="D80">
-        <v>0.6375114023980205</v>
+        <v>0.6375114023980206</v>
       </c>
       <c r="E80">
         <v>1.173553745558634</v>
@@ -2446,7 +2446,7 @@
         <v>1.160315997153297</v>
       </c>
       <c r="H80">
-        <v>1.088992267568351</v>
+        <v>1.088992267568352</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2466,7 +2466,7 @@
         <v>1.208338416373751</v>
       </c>
       <c r="F81">
-        <v>0.8744042778993142</v>
+        <v>0.8744042778993143</v>
       </c>
       <c r="G81">
         <v>1.176180841116117</v>
@@ -2506,7 +2506,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.7888701503715603</v>
+        <v>0.7888701503715604</v>
       </c>
       <c r="C83">
         <v>1.388120753203045</v>
@@ -2524,7 +2524,7 @@
         <v>1.014005571801564</v>
       </c>
       <c r="H83">
-        <v>1.00775893325016</v>
+        <v>1.007758933250159</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2532,13 +2532,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.7888701503715603</v>
+        <v>0.7888701503715604</v>
       </c>
       <c r="C84">
         <v>1.388120753203045</v>
       </c>
       <c r="D84">
-        <v>0.4797732986905243</v>
+        <v>0.4797732986905244</v>
       </c>
       <c r="E84">
         <v>1.077412871883312</v>
@@ -2610,10 +2610,10 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8860419244056278</v>
+        <v>0.8860419244056279</v>
       </c>
       <c r="C87">
-        <v>1.66825316994015</v>
+        <v>1.668253169940149</v>
       </c>
       <c r="D87">
         <v>0.1989622663019977</v>
@@ -2622,7 +2622,7 @@
         <v>1.237720054763614</v>
       </c>
       <c r="F87">
-        <v>0.8138698100562691</v>
+        <v>0.813869810056269</v>
       </c>
       <c r="G87">
         <v>1.118785595472817</v>
@@ -2636,16 +2636,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.8860419244056278</v>
+        <v>0.8860419244056279</v>
       </c>
       <c r="C88">
-        <v>1.66825316994015</v>
+        <v>1.668253169940149</v>
       </c>
       <c r="D88">
         <v>0.1989622663019977</v>
       </c>
       <c r="E88">
-        <v>1.237720054763615</v>
+        <v>1.237720054763614</v>
       </c>
       <c r="F88">
         <v>0.813869810056269</v>
@@ -2691,7 +2691,7 @@
         <v>1.179607157742053</v>
       </c>
       <c r="C90">
-        <v>0.5665155401955204</v>
+        <v>0.5665155401955205</v>
       </c>
       <c r="D90">
         <v>1.844515819635461</v>
@@ -2706,7 +2706,7 @@
         <v>1.298146579076313</v>
       </c>
       <c r="H90">
-        <v>1.224092929790597</v>
+        <v>1.224092929790598</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2717,7 +2717,7 @@
         <v>1.180193112562107</v>
       </c>
       <c r="C91">
-        <v>0.5462991816361824</v>
+        <v>0.5462991816361825</v>
       </c>
       <c r="D91">
         <v>1.847730470479767</v>
@@ -2743,7 +2743,7 @@
         <v>1.182696447354946</v>
       </c>
       <c r="C92">
-        <v>0.4599302125039883</v>
+        <v>0.4599302125039884</v>
       </c>
       <c r="D92">
         <v>1.861464203917853</v>
@@ -2755,10 +2755,10 @@
         <v>1.396204147606385</v>
       </c>
       <c r="G92">
-        <v>1.291167915809402</v>
+        <v>1.291167915809401</v>
       </c>
       <c r="H92">
-        <v>1.223238561847103</v>
+        <v>1.223238561847104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2766,7 +2766,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1.175077060595408</v>
+        <v>1.175077060595409</v>
       </c>
       <c r="C93">
         <v>0.7228109832755003</v>
@@ -2784,7 +2784,7 @@
         <v>1.30838000698831</v>
       </c>
       <c r="H93">
-        <v>1.225345764671099</v>
+        <v>1.2253457646711</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2795,13 +2795,13 @@
         <v>1.186825676256247</v>
       </c>
       <c r="C94">
-        <v>0.3204792948650775</v>
+        <v>0.3204792948650776</v>
       </c>
       <c r="D94">
         <v>1.654344560436925</v>
       </c>
       <c r="E94">
-        <v>1.028319417857904</v>
+        <v>1.028319417857905</v>
       </c>
       <c r="F94">
         <v>1.313264835980864</v>
@@ -2821,7 +2821,7 @@
         <v>1.175490302899572</v>
       </c>
       <c r="C95">
-        <v>0.7085534768826349</v>
+        <v>0.708553476882635</v>
       </c>
       <c r="D95">
         <v>1.821930032400108</v>
@@ -2836,7 +2836,7 @@
         <v>1.307446498237184</v>
       </c>
       <c r="H95">
-        <v>1.225231479180966</v>
+        <v>1.225231479180967</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2847,10 +2847,10 @@
         <v>1.181847397850301</v>
       </c>
       <c r="C96">
-        <v>0.489223749536334</v>
+        <v>0.4892237495363341</v>
       </c>
       <c r="D96">
-        <v>1.85680616952074</v>
+        <v>1.856806169520741</v>
       </c>
       <c r="E96">
         <v>1.039681952819628</v>
@@ -2862,7 +2862,7 @@
         <v>1.293085907105888</v>
       </c>
       <c r="H96">
-        <v>1.223473373331329</v>
+        <v>1.22347337333133</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2873,7 +2873,7 @@
         <v>1.175077060595408</v>
       </c>
       <c r="C97">
-        <v>0.7228109832755002</v>
+        <v>0.7228109832755003</v>
       </c>
       <c r="D97">
         <v>1.819662912689651</v>
@@ -2888,7 +2888,7 @@
         <v>1.30838000698831</v>
       </c>
       <c r="H97">
-        <v>1.225345764671099</v>
+        <v>1.2253457646711</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2896,10 +2896,10 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1.098904659108549</v>
+        <v>1.09890465910855</v>
       </c>
       <c r="C98">
-        <v>0.6713079862767561</v>
+        <v>0.6713079862767564</v>
       </c>
       <c r="D98">
         <v>1.561006266711019</v>
@@ -2925,13 +2925,13 @@
         <v>1.101002478069524</v>
       </c>
       <c r="C99">
-        <v>0.6087354834272467</v>
+        <v>0.6087354834272468</v>
       </c>
       <c r="D99">
         <v>1.570184568727871</v>
       </c>
       <c r="E99">
-        <v>0.9921295096487742</v>
+        <v>0.9921295096487743</v>
       </c>
       <c r="F99">
         <v>1.25852154972626</v>
@@ -2951,7 +2951,7 @@
         <v>1.175764086708124</v>
       </c>
       <c r="C100">
-        <v>0.6473015390682337</v>
+        <v>0.6473015390682338</v>
       </c>
       <c r="D100">
         <v>1.532152098311662</v>
@@ -2977,7 +2977,7 @@
         <v>1.177085749572084</v>
       </c>
       <c r="C101">
-        <v>0.6061794825915197</v>
+        <v>0.6061794825915198</v>
       </c>
       <c r="D101">
         <v>1.538447061908317</v>
@@ -3000,7 +3000,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1.174534898661371</v>
+        <v>1.174534898661372</v>
       </c>
       <c r="C102">
         <v>0.6855463454082965</v>
@@ -3029,7 +3029,7 @@
         <v>1.05753180415812</v>
       </c>
       <c r="C103">
-        <v>0.6357777754164232</v>
+        <v>0.6357777754164233</v>
       </c>
       <c r="D103">
         <v>1.330431246745266</v>
@@ -3197,7 +3197,7 @@
         <v>1.040145074245539</v>
       </c>
       <c r="G109">
-        <v>0.983510269835746</v>
+        <v>0.9835102698357461</v>
       </c>
       <c r="H109">
         <v>1.021616507217502</v>
@@ -3223,7 +3223,7 @@
         <v>1.040145074245539</v>
       </c>
       <c r="G110">
-        <v>0.983510269835746</v>
+        <v>0.9835102698357461</v>
       </c>
       <c r="H110">
         <v>1.021616507217502</v>
@@ -3263,7 +3263,7 @@
         <v>1.034667939739101</v>
       </c>
       <c r="C112">
-        <v>0.6600113967162298</v>
+        <v>0.6600113967162299</v>
       </c>
       <c r="D112">
         <v>1.22717801511165</v>
@@ -3286,13 +3286,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.9876951688230673</v>
+        <v>0.9876951688230675</v>
       </c>
       <c r="C113">
         <v>1.001122098930883</v>
       </c>
       <c r="D113">
-        <v>0.9113163459368909</v>
+        <v>0.9113163459368908</v>
       </c>
       <c r="E113">
         <v>0.9796635804484992</v>
@@ -3301,10 +3301,10 @@
         <v>1.00643459643415</v>
       </c>
       <c r="G113">
-        <v>0.9277948962799102</v>
+        <v>0.9277948962799103</v>
       </c>
       <c r="H113">
-        <v>0.9890816130834872</v>
+        <v>0.9890816130834873</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3312,7 +3312,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.9832065458893351</v>
+        <v>0.9832065458893352</v>
       </c>
       <c r="C114">
         <v>1.441776751670799</v>
@@ -3341,7 +3341,7 @@
         <v>1.035191920416404</v>
       </c>
       <c r="C115">
-        <v>0.6447823486370703</v>
+        <v>0.6447823486370704</v>
       </c>
       <c r="D115">
         <v>1.229002972283226</v>
@@ -3353,7 +3353,7 @@
         <v>1.132414529109655</v>
       </c>
       <c r="G115">
-        <v>0.9774174953343839</v>
+        <v>0.9774174953343842</v>
       </c>
       <c r="H115">
         <v>1.031496742410248</v>
@@ -3367,19 +3367,19 @@
         <v>1.034667939739101</v>
       </c>
       <c r="C116">
-        <v>0.6600113967162298</v>
+        <v>0.6600113967162299</v>
       </c>
       <c r="D116">
         <v>1.22717801511165</v>
       </c>
       <c r="E116">
-        <v>0.9521955598315256</v>
+        <v>0.9521955598315259</v>
       </c>
       <c r="F116">
         <v>1.131607795877627</v>
       </c>
       <c r="G116">
-        <v>0.9803013945082909</v>
+        <v>0.980301394508291</v>
       </c>
       <c r="H116">
         <v>1.032345433983628</v>
@@ -3390,13 +3390,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.9875551609580629</v>
+        <v>0.9875551609580631</v>
       </c>
       <c r="C117">
         <v>1.00469511730567</v>
       </c>
       <c r="D117">
-        <v>0.9109288686796227</v>
+        <v>0.9109288686796226</v>
       </c>
       <c r="E117">
         <v>0.9801976822686791</v>
@@ -3405,10 +3405,10 @@
         <v>1.006265375451353</v>
       </c>
       <c r="G117">
-        <v>0.9288586409920538</v>
+        <v>0.928858640992054</v>
       </c>
       <c r="H117">
-        <v>0.9894614408145255</v>
+        <v>0.9894614408145258</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3416,10 +3416,10 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.9367125836332728</v>
+        <v>0.9367125836332729</v>
       </c>
       <c r="C118">
-        <v>2.049571862669925</v>
+        <v>2.049571862669926</v>
       </c>
       <c r="D118">
         <v>0.61502241026552</v>
@@ -3428,7 +3428,7 @@
         <v>1.368044361492709</v>
       </c>
       <c r="F118">
-        <v>0.9075442550245343</v>
+        <v>0.9075442550245342</v>
       </c>
       <c r="G118">
         <v>1.416198052970581</v>
@@ -3442,7 +3442,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.9050322532629173</v>
+        <v>0.9050322532629174</v>
       </c>
       <c r="C119">
         <v>1.662277070077281</v>
@@ -3474,10 +3474,10 @@
         <v>0.6632233894738888</v>
       </c>
       <c r="D120">
-        <v>1.63677798705588</v>
+        <v>1.636777987055881</v>
       </c>
       <c r="E120">
-        <v>1.002612387641624</v>
+        <v>1.002612387641625</v>
       </c>
       <c r="F120">
         <v>1.287461419726929</v>
@@ -3526,7 +3526,7 @@
         <v>1.070079711962772</v>
       </c>
       <c r="D122">
-        <v>0.9790243680944886</v>
+        <v>0.9790243680944883</v>
       </c>
       <c r="E122">
         <v>1.04471043835233</v>
@@ -3538,7 +3538,7 @@
         <v>0.992700137635703</v>
       </c>
       <c r="H122">
-        <v>1.046324302706678</v>
+        <v>1.046324302706679</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3552,7 +3552,7 @@
         <v>1.045825377423229</v>
       </c>
       <c r="D123">
-        <v>0.9816403850136778</v>
+        <v>0.9816403850136779</v>
       </c>
       <c r="E123">
         <v>1.041238216996856</v>
@@ -3572,13 +3572,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.05427173368605</v>
+        <v>1.054271733686051</v>
       </c>
       <c r="C124">
         <v>1.070079711962772</v>
       </c>
       <c r="D124">
-        <v>0.9790243680944885</v>
+        <v>0.9790243680944886</v>
       </c>
       <c r="E124">
         <v>1.04471043835233</v>
@@ -3590,7 +3590,7 @@
         <v>0.9927001376357031</v>
       </c>
       <c r="H124">
-        <v>1.046324302706678</v>
+        <v>1.046324302706679</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3604,7 +3604,7 @@
         <v>1.034382397253867</v>
       </c>
       <c r="D125">
-        <v>0.9401435277627276</v>
+        <v>0.9401435277627277</v>
       </c>
       <c r="E125">
         <v>1.027212360335185</v>
@@ -3630,13 +3630,13 @@
         <v>1.477602353336266</v>
       </c>
       <c r="D126">
-        <v>0.8400680744087974</v>
+        <v>0.8400680744087976</v>
       </c>
       <c r="E126">
         <v>1.164010476299064</v>
       </c>
       <c r="F126">
-        <v>1.023327342765816</v>
+        <v>1.023327342765817</v>
       </c>
       <c r="G126">
         <v>1.14486737356871</v>
@@ -3731,13 +3731,13 @@
         <v>1.217755097130735</v>
       </c>
       <c r="C130">
-        <v>0.6690245584568527</v>
+        <v>0.6690245584568528</v>
       </c>
       <c r="D130">
         <v>1.699232760976875</v>
       </c>
       <c r="E130">
-        <v>1.077335824483647</v>
+        <v>1.077335824483648</v>
       </c>
       <c r="F130">
         <v>1.346068253611377</v>
@@ -3766,7 +3766,7 @@
         <v>1.067896962679607</v>
       </c>
       <c r="F131">
-        <v>1.354729459210792</v>
+        <v>1.354729459210793</v>
       </c>
       <c r="G131">
         <v>1.22279822610515</v>
@@ -3838,7 +3838,7 @@
         <v>0.513676950382612</v>
       </c>
       <c r="D134">
-        <v>1.790066494208516</v>
+        <v>1.790066494208515</v>
       </c>
       <c r="E134">
         <v>1.042201551566147</v>
@@ -3861,7 +3861,7 @@
         <v>1.230001583520116</v>
       </c>
       <c r="C135">
-        <v>0.6807388412297999</v>
+        <v>0.6807388412298001</v>
       </c>
       <c r="D135">
         <v>1.597015041873127</v>
@@ -3887,7 +3887,7 @@
         <v>1.21277932457749</v>
       </c>
       <c r="C136">
-        <v>0.7405085207100328</v>
+        <v>0.7405085207100329</v>
       </c>
       <c r="D136">
         <v>1.42862566326833</v>
@@ -3939,7 +3939,7 @@
         <v>1.212034909878913</v>
       </c>
       <c r="C138">
-        <v>0.770632952619104</v>
+        <v>0.7706329526191041</v>
       </c>
       <c r="D138">
         <v>1.424171521208348</v>
@@ -4069,7 +4069,7 @@
         <v>1.146891466700789</v>
       </c>
       <c r="C143">
-        <v>0.8260839202952109</v>
+        <v>0.8260839202952112</v>
       </c>
       <c r="D143">
         <v>1.141479685757281</v>
@@ -4176,7 +4176,7 @@
         <v>1.455175094849762</v>
       </c>
       <c r="D147">
-        <v>0.9859764339167919</v>
+        <v>0.9859764339167922</v>
       </c>
       <c r="E147">
         <v>1.167474144420004</v>
@@ -4225,22 +4225,22 @@
         <v>1.132669707113823</v>
       </c>
       <c r="C149">
-        <v>0.626919839549257</v>
+        <v>0.6269198395492571</v>
       </c>
       <c r="D149">
         <v>1.287858547366474</v>
       </c>
       <c r="E149">
-        <v>0.9912241819658558</v>
+        <v>0.991224181965856</v>
       </c>
       <c r="F149">
         <v>1.163061919664987</v>
       </c>
       <c r="G149">
-        <v>0.9766948431329017</v>
+        <v>0.9766948431329019</v>
       </c>
       <c r="H149">
-        <v>1.030855716912978</v>
+        <v>1.030855716912979</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4251,13 +4251,13 @@
         <v>1.132669707113823</v>
       </c>
       <c r="C150">
-        <v>0.626919839549257</v>
+        <v>0.6269198395492571</v>
       </c>
       <c r="D150">
         <v>1.287858547366474</v>
       </c>
       <c r="E150">
-        <v>0.991224181965856</v>
+        <v>0.9912241819658562</v>
       </c>
       <c r="F150">
         <v>1.163061919664987</v>
@@ -4266,7 +4266,7 @@
         <v>0.9766948431329017</v>
       </c>
       <c r="H150">
-        <v>1.030855716912978</v>
+        <v>1.030855716912979</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4280,10 +4280,10 @@
         <v>0.5826124443156556</v>
       </c>
       <c r="D151">
-        <v>1.294480685118407</v>
+        <v>1.294480685118406</v>
       </c>
       <c r="E151">
-        <v>0.9900373497619013</v>
+        <v>0.9900373497619016</v>
       </c>
       <c r="F151">
         <v>1.164930788352801</v>
@@ -4303,13 +4303,13 @@
         <v>1.132669707113823</v>
       </c>
       <c r="C152">
-        <v>0.626919839549257</v>
+        <v>0.6269198395492571</v>
       </c>
       <c r="D152">
         <v>1.287858547366474</v>
       </c>
       <c r="E152">
-        <v>0.9912241819658558</v>
+        <v>0.991224181965856</v>
       </c>
       <c r="F152">
         <v>1.163061919664987</v>
@@ -4318,7 +4318,7 @@
         <v>0.9766948431329017</v>
       </c>
       <c r="H152">
-        <v>1.030855716912978</v>
+        <v>1.030855716912979</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4384,7 +4384,7 @@
         <v>0.9571391840983718</v>
       </c>
       <c r="D155">
-        <v>0.9554273381581493</v>
+        <v>0.9554273381581495</v>
       </c>
       <c r="E155">
         <v>0.9663901806352745</v>
@@ -4407,7 +4407,7 @@
         <v>1.057788516228817</v>
       </c>
       <c r="C156">
-        <v>0.957139184098372</v>
+        <v>0.9571391840983718</v>
       </c>
       <c r="D156">
         <v>0.9554273381581495</v>
@@ -4419,7 +4419,7 @@
         <v>1.025107230490702</v>
       </c>
       <c r="G156">
-        <v>0.8874207816062313</v>
+        <v>0.8874207816062312</v>
       </c>
       <c r="H156">
         <v>0.9467266767150229</v>
@@ -4436,7 +4436,7 @@
         <v>1.28621067282914</v>
       </c>
       <c r="D157">
-        <v>0.8692494842430702</v>
+        <v>0.8692494842430704</v>
       </c>
       <c r="E157">
         <v>1.042925877391075</v>
@@ -4448,7 +4448,7 @@
         <v>1.012035569002682</v>
       </c>
       <c r="H157">
-        <v>1.008987933214529</v>
+        <v>1.00898793321453</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4465,16 +4465,16 @@
         <v>1.079071534698442</v>
       </c>
       <c r="E158">
-        <v>0.9882298046739875</v>
+        <v>0.9882298046739877</v>
       </c>
       <c r="F158">
         <v>1.06574229881857</v>
       </c>
       <c r="G158">
-        <v>0.9590979035388627</v>
+        <v>0.9590979035388629</v>
       </c>
       <c r="H158">
-        <v>0.9857728939539724</v>
+        <v>0.9857728939539725</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4491,7 +4491,7 @@
         <v>1.238303044131633</v>
       </c>
       <c r="E159">
-        <v>0.950453071079688</v>
+        <v>0.9504530710796881</v>
       </c>
       <c r="F159">
         <v>1.108732330537992</v>
@@ -4511,19 +4511,19 @@
         <v>1.014825920696394</v>
       </c>
       <c r="C160">
-        <v>0.8831516095680501</v>
+        <v>0.8831516095680499</v>
       </c>
       <c r="D160">
-        <v>0.9620612458438371</v>
+        <v>0.9620612458438373</v>
       </c>
       <c r="E160">
-        <v>0.935993276695025</v>
+        <v>0.9359932766950252</v>
       </c>
       <c r="F160">
         <v>0.9965584890560426</v>
       </c>
       <c r="G160">
-        <v>0.8819071823325424</v>
+        <v>0.8819071823325425</v>
       </c>
       <c r="H160">
         <v>0.926505092339953</v>
@@ -4537,7 +4537,7 @@
         <v>0.9870810059215429</v>
       </c>
       <c r="C161">
-        <v>1.225626095441699</v>
+        <v>1.2256260954417</v>
       </c>
       <c r="D161">
         <v>0.8973564125518827</v>
@@ -4572,7 +4572,7 @@
         <v>1.110034836273516</v>
       </c>
       <c r="F162">
-        <v>0.959731719391267</v>
+        <v>0.9597317193912669</v>
       </c>
       <c r="G162">
         <v>1.169318029195475</v>
@@ -4589,13 +4589,13 @@
         <v>1.096352045921317</v>
       </c>
       <c r="C163">
-        <v>0.5831070830971828</v>
+        <v>0.583107083097183</v>
       </c>
       <c r="D163">
         <v>1.197990789168858</v>
       </c>
       <c r="E163">
-        <v>0.961046216520289</v>
+        <v>0.9610462165202892</v>
       </c>
       <c r="F163">
         <v>1.123831788697614</v>
@@ -4656,7 +4656,7 @@
         <v>0.831633097898676</v>
       </c>
       <c r="H165">
-        <v>0.9298386299874405</v>
+        <v>0.9298386299874407</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4673,7 +4673,7 @@
         <v>0.8671754703795703</v>
       </c>
       <c r="E166">
-        <v>0.9356403169346144</v>
+        <v>0.9356403169346146</v>
       </c>
       <c r="F166">
         <v>0.9961520659127628</v>
@@ -4682,7 +4682,7 @@
         <v>0.8316330978986761</v>
       </c>
       <c r="H166">
-        <v>0.9298386299874405</v>
+        <v>0.9298386299874408</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4823,7 +4823,7 @@
         <v>1.226193663804314</v>
       </c>
       <c r="C172">
-        <v>0.6769915983984017</v>
+        <v>0.6769915983984018</v>
       </c>
       <c r="D172">
         <v>1.585798814396993</v>
@@ -4849,7 +4849,7 @@
         <v>1.229722124141154</v>
       </c>
       <c r="C173">
-        <v>0.5404129180302623</v>
+        <v>0.5404129180302624</v>
       </c>
       <c r="D173">
         <v>1.605572661807211</v>
@@ -4875,7 +4875,7 @@
         <v>1.246838943834643</v>
       </c>
       <c r="C174">
-        <v>0.4992673208676534</v>
+        <v>0.4992673208676535</v>
       </c>
       <c r="D174">
         <v>1.658295670313657</v>
@@ -4884,7 +4884,7 @@
         <v>1.083070281591095</v>
       </c>
       <c r="F174">
-        <v>1.333111522851883</v>
+        <v>1.333111522851882</v>
       </c>
       <c r="G174">
         <v>1.175342974808448</v>
@@ -4907,7 +4907,7 @@
         <v>1.038708775225287</v>
       </c>
       <c r="E175">
-        <v>1.249068395240128</v>
+        <v>1.249068395240129</v>
       </c>
       <c r="F175">
         <v>1.174908957857064</v>
@@ -4936,7 +4936,7 @@
         <v>1.130247906351571</v>
       </c>
       <c r="F176">
-        <v>1.182158336262909</v>
+        <v>1.18215833626291</v>
       </c>
       <c r="G176">
         <v>1.079492910782195</v>
@@ -4979,7 +4979,7 @@
         <v>1.223447232677884</v>
       </c>
       <c r="C178">
-        <v>0.727220016585949</v>
+        <v>0.7272200165859491</v>
       </c>
       <c r="D178">
         <v>1.33446686358024</v>
@@ -5014,7 +5014,7 @@
         <v>1.114259287924871</v>
       </c>
       <c r="F179">
-        <v>1.168352510096963</v>
+        <v>1.168352510096964</v>
       </c>
       <c r="G179">
         <v>1.07806137203766</v>
@@ -5028,7 +5028,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>1.175781300991304</v>
+        <v>1.175781300991305</v>
       </c>
       <c r="C180">
         <v>2.082805380012636</v>
@@ -5054,7 +5054,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1.175781300991304</v>
+        <v>1.175781300991305</v>
       </c>
       <c r="C181">
         <v>2.082805380012636</v>
@@ -5106,7 +5106,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>1.110720573632781</v>
+        <v>1.110720573632782</v>
       </c>
       <c r="C183">
         <v>1.649937327348044</v>
@@ -5138,7 +5138,7 @@
         <v>1.463717551028108</v>
       </c>
       <c r="D184">
-        <v>0.882320015190321</v>
+        <v>0.8823200151903211</v>
       </c>
       <c r="E184">
         <v>1.204580160216687</v>
@@ -5184,13 +5184,13 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.068228748406426</v>
+        <v>1.068228748406427</v>
       </c>
       <c r="C186">
         <v>1.724002462585838</v>
       </c>
       <c r="D186">
-        <v>0.7989910842593073</v>
+        <v>0.7989910842593072</v>
       </c>
       <c r="E186">
         <v>1.245667199500581</v>
@@ -5210,13 +5210,13 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>1.112361535767751</v>
+        <v>1.112361535767752</v>
       </c>
       <c r="C187">
         <v>1.340652745221355</v>
       </c>
       <c r="D187">
-        <v>0.8719729825840081</v>
+        <v>0.8719729825840079</v>
       </c>
       <c r="E187">
         <v>1.133823854930847</v>
@@ -5248,7 +5248,7 @@
         <v>1.203343105924491</v>
       </c>
       <c r="F188">
-        <v>1.019453893865384</v>
+        <v>1.019453893865385</v>
       </c>
       <c r="G188">
         <v>1.238412625504493</v>
@@ -5271,10 +5271,10 @@
         <v>0.6377053221809027</v>
       </c>
       <c r="E189">
-        <v>1.253766835991998</v>
+        <v>1.253766835991997</v>
       </c>
       <c r="F189">
-        <v>1.006323013379187</v>
+        <v>1.006323013379188</v>
       </c>
       <c r="G189">
         <v>1.281950149306007</v>
@@ -5300,7 +5300,7 @@
         <v>1.253766835991997</v>
       </c>
       <c r="F190">
-        <v>1.006323013379187</v>
+        <v>1.006323013379188</v>
       </c>
       <c r="G190">
         <v>1.281950149306007</v>
@@ -5314,7 +5314,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>1.157033480095657</v>
+        <v>1.157033480095658</v>
       </c>
       <c r="C191">
         <v>1.49992254245519</v>
@@ -5346,7 +5346,7 @@
         <v>1.340652745221355</v>
       </c>
       <c r="D192">
-        <v>0.871972982584008</v>
+        <v>0.8719729825840079</v>
       </c>
       <c r="E192">
         <v>1.133823854930847</v>
@@ -5366,7 +5366,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.174534898661371</v>
+        <v>1.174534898661372</v>
       </c>
       <c r="C193">
         <v>0.6855463454082965</v>
@@ -5384,7 +5384,7 @@
         <v>1.135961629350728</v>
       </c>
       <c r="H193">
-        <v>1.138491643881992</v>
+        <v>1.138491643881993</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5499,7 +5499,7 @@
         <v>1.153723442276245</v>
       </c>
       <c r="C198">
-        <v>0.6186015934975827</v>
+        <v>0.6186015934975828</v>
       </c>
       <c r="D198">
         <v>1.337490561731302</v>
@@ -5589,7 +5589,7 @@
         <v>1.118460480396674</v>
       </c>
       <c r="G201">
-        <v>1.227652617840102</v>
+        <v>1.227652617840103</v>
       </c>
       <c r="H201">
         <v>1.171214047821084</v>
@@ -5606,7 +5606,7 @@
         <v>1.643463563043291</v>
       </c>
       <c r="D202">
-        <v>0.9867244516064635</v>
+        <v>0.9867244516064636</v>
       </c>
       <c r="E202">
         <v>1.295179513054861</v>
@@ -5644,7 +5644,7 @@
         <v>1.074948125553927</v>
       </c>
       <c r="H203">
-        <v>1.113236157928835</v>
+        <v>1.113236157928836</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5655,7 +5655,7 @@
         <v>1.119961276699944</v>
       </c>
       <c r="C204">
-        <v>1.082234710468226</v>
+        <v>1.082234710468225</v>
       </c>
       <c r="D204">
         <v>1.015201987252689</v>
@@ -5664,7 +5664,7 @@
         <v>1.074866165253857</v>
       </c>
       <c r="F204">
-        <v>1.112804053576242</v>
+        <v>1.112804053576243</v>
       </c>
       <c r="G204">
         <v>1.007271813030131</v>
@@ -5687,7 +5687,7 @@
         <v>0.9194718124326238</v>
       </c>
       <c r="E205">
-        <v>1.208618472705214</v>
+        <v>1.208618472705215</v>
       </c>
       <c r="F205">
         <v>1.096225235330838</v>
@@ -5719,7 +5719,7 @@
         <v>1.017747997185505</v>
       </c>
       <c r="G206">
-        <v>0.9168895145596301</v>
+        <v>0.9168895145596303</v>
       </c>
       <c r="H206">
         <v>0.8829790933508035</v>
@@ -5742,10 +5742,10 @@
         <v>0.7564970718434562</v>
       </c>
       <c r="F207">
-        <v>0.9622790333999796</v>
+        <v>0.9622790333999793</v>
       </c>
       <c r="G207">
-        <v>0.8202392189924397</v>
+        <v>0.8202392189924399</v>
       </c>
       <c r="H207">
         <v>0.8271883819661132</v>
@@ -5762,7 +5762,7 @@
         <v>0.4170771815770177</v>
       </c>
       <c r="D208">
-        <v>1.239659274862326</v>
+        <v>1.239659274862327</v>
       </c>
       <c r="E208">
         <v>0.7564970718434562</v>
@@ -5771,7 +5771,7 @@
         <v>0.9622790333999796</v>
       </c>
       <c r="G208">
-        <v>0.8202392189924397</v>
+        <v>0.8202392189924399</v>
       </c>
       <c r="H208">
         <v>0.8271883819661133</v>
@@ -5791,13 +5791,13 @@
         <v>1.406991076280589</v>
       </c>
       <c r="E209">
-        <v>0.7539226617937805</v>
+        <v>0.7539226617937806</v>
       </c>
       <c r="F209">
         <v>1.023324588807499</v>
       </c>
       <c r="G209">
-        <v>0.9102308290731284</v>
+        <v>0.9102308290731285</v>
       </c>
       <c r="H209">
         <v>0.8816651416184217</v>
@@ -5814,16 +5814,16 @@
         <v>0.4170771815770177</v>
       </c>
       <c r="D210">
-        <v>1.239659274862326</v>
+        <v>1.239659274862327</v>
       </c>
       <c r="E210">
-        <v>0.756497071843456</v>
+        <v>0.7564970718434562</v>
       </c>
       <c r="F210">
         <v>0.9622790333999796</v>
       </c>
       <c r="G210">
-        <v>0.8202392189924397</v>
+        <v>0.8202392189924398</v>
       </c>
       <c r="H210">
         <v>0.8271883819661132</v>
@@ -5834,10 +5834,10 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>0.8919593758744734</v>
+        <v>0.8919593758744733</v>
       </c>
       <c r="C211">
-        <v>0.7236260382532348</v>
+        <v>0.7236260382532349</v>
       </c>
       <c r="D211">
         <v>1.056139235283624</v>
@@ -5849,7 +5849,7 @@
         <v>0.9054077019116411</v>
       </c>
       <c r="G211">
-        <v>0.8376362437823203</v>
+        <v>0.8376362437823204</v>
       </c>
       <c r="H211">
         <v>0.836570821314638</v>
@@ -5860,7 +5860,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.8873663942837534</v>
+        <v>0.8873663942837535</v>
       </c>
       <c r="C212">
         <v>0.7635214321732031</v>
@@ -5869,13 +5869,13 @@
         <v>1.102380519002043</v>
       </c>
       <c r="E212">
-        <v>0.8486264158949731</v>
+        <v>0.8486264158949733</v>
       </c>
       <c r="F212">
         <v>0.9111289998433405</v>
       </c>
       <c r="G212">
-        <v>0.8833644888722076</v>
+        <v>0.8833644888722078</v>
       </c>
       <c r="H212">
         <v>0.8647120233890467</v>
@@ -5927,7 +5927,7 @@
         <v>0.8887276455136686</v>
       </c>
       <c r="G214">
-        <v>0.7480885318216893</v>
+        <v>0.7480885318216894</v>
       </c>
       <c r="H214">
         <v>0.7868933434385</v>
@@ -5941,19 +5941,19 @@
         <v>0.9087435958793617</v>
       </c>
       <c r="C215">
-        <v>0.6291678778824525</v>
+        <v>0.6291678778824527</v>
       </c>
       <c r="D215">
         <v>0.9702330095520519</v>
       </c>
       <c r="E215">
-        <v>0.7920117996914628</v>
+        <v>0.792011799691463</v>
       </c>
       <c r="F215">
-        <v>0.8887276455136686</v>
+        <v>0.8887276455136685</v>
       </c>
       <c r="G215">
-        <v>0.7480885318216893</v>
+        <v>0.7480885318216894</v>
       </c>
       <c r="H215">
         <v>0.7868933434385</v>
@@ -5970,16 +5970,16 @@
         <v>0.6626029518938324</v>
       </c>
       <c r="D216">
-        <v>0.8043707302983614</v>
+        <v>0.8043707302983611</v>
       </c>
       <c r="E216">
         <v>0.773995502763041</v>
       </c>
       <c r="F216">
-        <v>0.828729256776093</v>
+        <v>0.8287292567760928</v>
       </c>
       <c r="G216">
-        <v>0.694199081798512</v>
+        <v>0.6941990817985121</v>
       </c>
       <c r="H216">
         <v>0.7484167443855821</v>
@@ -5993,7 +5993,7 @@
         <v>0.8456076417967796</v>
       </c>
       <c r="C217">
-        <v>0.6649509614600616</v>
+        <v>0.6649509614600617</v>
       </c>
       <c r="D217">
         <v>0.9802054972120935</v>
@@ -6002,10 +6002,10 @@
         <v>0.7633477493461204</v>
       </c>
       <c r="F217">
-        <v>0.8331956009854593</v>
+        <v>0.8331956009854592</v>
       </c>
       <c r="G217">
-        <v>0.7610666916838007</v>
+        <v>0.7610666916838009</v>
       </c>
       <c r="H217">
         <v>0.7594709892029746</v>
@@ -6048,16 +6048,16 @@
         <v>0.7150230500441797</v>
       </c>
       <c r="D219">
-        <v>0.9707104438576581</v>
+        <v>0.9707104438576584</v>
       </c>
       <c r="E219">
-        <v>0.8127343731912434</v>
+        <v>0.8127343731912435</v>
       </c>
       <c r="F219">
-        <v>0.8848933395314343</v>
+        <v>0.8848933395314345</v>
       </c>
       <c r="G219">
-        <v>0.7948752615192938</v>
+        <v>0.794875261519294</v>
       </c>
       <c r="H219">
         <v>0.8271458212126139</v>
@@ -6071,22 +6071,22 @@
         <v>0.863619611836663</v>
       </c>
       <c r="C220">
-        <v>0.7846155246193079</v>
+        <v>0.7846155246193082</v>
       </c>
       <c r="D220">
         <v>1.012300979039194</v>
       </c>
       <c r="E220">
-        <v>0.8471949451767858</v>
+        <v>0.847194945176786</v>
       </c>
       <c r="F220">
-        <v>0.8790936470525484</v>
+        <v>0.8790936470525483</v>
       </c>
       <c r="G220">
-        <v>0.8568282475587626</v>
+        <v>0.8568282475587627</v>
       </c>
       <c r="H220">
-        <v>0.8537787005102541</v>
+        <v>0.8537787005102543</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6100,16 +6100,16 @@
         <v>1.06406963268674</v>
       </c>
       <c r="D221">
-        <v>0.8097349302504747</v>
+        <v>0.8097349302504745</v>
       </c>
       <c r="E221">
         <v>0.9355612194617265</v>
       </c>
       <c r="F221">
-        <v>0.8689748227910361</v>
+        <v>0.8689748227910362</v>
       </c>
       <c r="G221">
-        <v>0.9190996664120357</v>
+        <v>0.9190996664120361</v>
       </c>
       <c r="H221">
         <v>0.9236047040489547</v>
@@ -6129,13 +6129,13 @@
         <v>0.9707104438576584</v>
       </c>
       <c r="E222">
-        <v>0.8127343731912433</v>
+        <v>0.8127343731912434</v>
       </c>
       <c r="F222">
         <v>0.8848933395314345</v>
       </c>
       <c r="G222">
-        <v>0.7948752615192938</v>
+        <v>0.794875261519294</v>
       </c>
       <c r="H222">
         <v>0.8271458212126138</v>
@@ -6146,7 +6146,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.8215192347433867</v>
+        <v>0.8215192347433868</v>
       </c>
       <c r="C223">
         <v>1.616381603384812</v>
@@ -6172,7 +6172,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.8965104488955125</v>
+        <v>0.8965104488955123</v>
       </c>
       <c r="C224">
         <v>1.15621209298337</v>
@@ -6190,7 +6190,7 @@
         <v>0.9203841125970018</v>
       </c>
       <c r="H224">
-        <v>0.9098426645203513</v>
+        <v>0.9098426645203516</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6198,7 +6198,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>0.9293348202180117</v>
+        <v>0.9293348202180115</v>
       </c>
       <c r="C225">
         <v>0.6088975181680193</v>
@@ -6213,7 +6213,7 @@
         <v>0.8953756475113899</v>
       </c>
       <c r="G225">
-        <v>0.6332175263143861</v>
+        <v>0.6332175263143862</v>
       </c>
       <c r="H225">
         <v>0.775975751469776</v>
@@ -6236,10 +6236,10 @@
         <v>0.8599281408747602</v>
       </c>
       <c r="F226">
-        <v>0.8821923919525474</v>
+        <v>0.8821923919525475</v>
       </c>
       <c r="G226">
-        <v>0.756069891454926</v>
+        <v>0.7560698914549261</v>
       </c>
       <c r="H226">
         <v>0.8296069471338809</v>
@@ -6250,13 +6250,13 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.9303474061362611</v>
+        <v>0.930347406136261</v>
       </c>
       <c r="C227">
         <v>0.552374910793239</v>
       </c>
       <c r="D227">
-        <v>0.8978404427661243</v>
+        <v>0.8978404427661244</v>
       </c>
       <c r="E227">
         <v>0.7845288784233672</v>
@@ -6265,7 +6265,7 @@
         <v>0.9065768168383311</v>
       </c>
       <c r="G227">
-        <v>0.6893403401649583</v>
+        <v>0.6893403401649584</v>
       </c>
       <c r="H227">
         <v>0.7855706250192117</v>
@@ -6302,10 +6302,10 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0.863619611836663</v>
+        <v>0.8636196118366632</v>
       </c>
       <c r="C229">
-        <v>0.7846155246193079</v>
+        <v>0.7846155246193082</v>
       </c>
       <c r="D229">
         <v>1.012300979039194</v>
@@ -6314,13 +6314,13 @@
         <v>0.847194945176786</v>
       </c>
       <c r="F229">
-        <v>0.8790936470525484</v>
+        <v>0.8790936470525483</v>
       </c>
       <c r="G229">
-        <v>0.8568282475587627</v>
+        <v>0.856828247558763</v>
       </c>
       <c r="H229">
-        <v>0.8537787005102542</v>
+        <v>0.8537787005102543</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6331,7 +6331,7 @@
         <v>0.8764656642537252</v>
       </c>
       <c r="C230">
-        <v>0.6996406871029536</v>
+        <v>0.6996406871029538</v>
       </c>
       <c r="D230">
         <v>0.8990581953785902</v>
@@ -6343,10 +6343,10 @@
         <v>0.9017648731541301</v>
       </c>
       <c r="G230">
-        <v>0.7739671212352819</v>
+        <v>0.773967121235282</v>
       </c>
       <c r="H230">
-        <v>0.8392360571851528</v>
+        <v>0.8392360571851529</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6354,7 +6354,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0.8841510012473106</v>
+        <v>0.8841510012473108</v>
       </c>
       <c r="C231">
         <v>1.144901538178201</v>
@@ -6363,7 +6363,7 @@
         <v>1.001724497594554</v>
       </c>
       <c r="E231">
-        <v>0.9842466627401204</v>
+        <v>0.9842466627401206</v>
       </c>
       <c r="F231">
         <v>0.878135687064897</v>
@@ -6372,7 +6372,7 @@
         <v>1.032437396350639</v>
       </c>
       <c r="H231">
-        <v>0.9623072578372276</v>
+        <v>0.9623072578372277</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6392,10 +6392,10 @@
         <v>0.8903102658062442</v>
       </c>
       <c r="F232">
-        <v>0.8357362071390887</v>
+        <v>0.8357362071390886</v>
       </c>
       <c r="G232">
-        <v>0.9169833417453829</v>
+        <v>0.9169833417453831</v>
       </c>
       <c r="H232">
         <v>0.8689083951093231</v>
@@ -6406,13 +6406,13 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.8160926197200653</v>
+        <v>0.8160926197200654</v>
       </c>
       <c r="C233">
         <v>1.493304832193769</v>
       </c>
       <c r="D233">
-        <v>0.7433479679104898</v>
+        <v>0.74334796791049</v>
       </c>
       <c r="E233">
         <v>1.083191829414382</v>
@@ -6421,7 +6421,7 @@
         <v>0.7610558856430372</v>
       </c>
       <c r="G233">
-        <v>1.13431424214202</v>
+        <v>1.134314242142021</v>
       </c>
       <c r="H233">
         <v>1.019606360090631</v>
@@ -6441,13 +6441,13 @@
         <v>0.8229738216414391</v>
       </c>
       <c r="E234">
-        <v>1.052506645164969</v>
+        <v>1.05250664516497</v>
       </c>
       <c r="F234">
-        <v>0.8322742870251416</v>
+        <v>0.8322742870251414</v>
       </c>
       <c r="G234">
-        <v>1.137982896052858</v>
+        <v>1.137982896052859</v>
       </c>
       <c r="H234">
         <v>1.041083500259526</v>
@@ -6467,10 +6467,10 @@
         <v>0.8229738216414391</v>
       </c>
       <c r="E235">
-        <v>1.052506645164969</v>
+        <v>1.05250664516497</v>
       </c>
       <c r="F235">
-        <v>0.8322742870251417</v>
+        <v>0.8322742870251414</v>
       </c>
       <c r="G235">
         <v>1.137982896052858</v>
@@ -6484,10 +6484,10 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.8123267237774706</v>
+        <v>0.8123267237774705</v>
       </c>
       <c r="C236">
-        <v>1.550435511788715</v>
+        <v>1.550435511788716</v>
       </c>
       <c r="D236">
         <v>0.670565650684171</v>
@@ -6496,7 +6496,7 @@
         <v>1.117866622647057</v>
       </c>
       <c r="F236">
-        <v>0.7785816758544635</v>
+        <v>0.7785816758544634</v>
       </c>
       <c r="G236">
         <v>1.164829035344605</v>
@@ -6510,19 +6510,19 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.9277606002126632</v>
+        <v>0.9277606002126629</v>
       </c>
       <c r="C237">
         <v>0.9187323771095661</v>
       </c>
       <c r="D237">
-        <v>0.7908787915748077</v>
+        <v>0.7908787915748078</v>
       </c>
       <c r="E237">
         <v>0.871972587774462</v>
       </c>
       <c r="F237">
-        <v>0.8870535156547629</v>
+        <v>0.887053515654763</v>
       </c>
       <c r="G237">
         <v>0.8280009182449566</v>
@@ -6536,7 +6536,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.9268706334098371</v>
+        <v>0.926870633409837</v>
       </c>
       <c r="C238">
         <v>0.650451331630156</v>
@@ -6545,16 +6545,16 @@
         <v>0.8805425417986378</v>
       </c>
       <c r="E238">
-        <v>0.793923047908303</v>
+        <v>0.7939230479083028</v>
       </c>
       <c r="F238">
-        <v>0.9017484295438978</v>
+        <v>0.901748429543898</v>
       </c>
       <c r="G238">
-        <v>0.7183939209662448</v>
+        <v>0.7183939209662449</v>
       </c>
       <c r="H238">
-        <v>0.7911037989773919</v>
+        <v>0.791103798977392</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6568,13 +6568,13 @@
         <v>1.29415474084745</v>
       </c>
       <c r="D239">
-        <v>0.5915927988812167</v>
+        <v>0.5915927988812169</v>
       </c>
       <c r="E239">
         <v>1.003881774196717</v>
       </c>
       <c r="F239">
-        <v>0.8336107239542269</v>
+        <v>0.833610723954227</v>
       </c>
       <c r="G239">
         <v>1.002558943350041</v>
@@ -6597,16 +6597,16 @@
         <v>0.5093757040720441</v>
       </c>
       <c r="E240">
-        <v>0.9385731459378928</v>
+        <v>0.9385731459378929</v>
       </c>
       <c r="F240">
         <v>0.7925309953700344</v>
       </c>
       <c r="G240">
-        <v>0.8978897616441447</v>
+        <v>0.897889761644145</v>
       </c>
       <c r="H240">
-        <v>0.8748671652646935</v>
+        <v>0.8748671652646933</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6629,7 +6629,7 @@
         <v>0.7634766331947528</v>
       </c>
       <c r="G241">
-        <v>0.9168708943689855</v>
+        <v>0.9168708943689857</v>
       </c>
       <c r="H241">
         <v>0.8905108028946338</v>
@@ -6643,19 +6643,19 @@
         <v>0.8697315915676345</v>
       </c>
       <c r="C242">
-        <v>1.06406963268674</v>
+        <v>1.064069632686741</v>
       </c>
       <c r="D242">
         <v>0.8097349302504745</v>
       </c>
       <c r="E242">
-        <v>0.9355612194617267</v>
+        <v>0.9355612194617265</v>
       </c>
       <c r="F242">
-        <v>0.8689748227910361</v>
+        <v>0.8689748227910362</v>
       </c>
       <c r="G242">
-        <v>0.9190996664120357</v>
+        <v>0.919099666412036</v>
       </c>
       <c r="H242">
         <v>0.9236047040489548</v>
@@ -6675,13 +6675,13 @@
         <v>0.6643092346586335</v>
       </c>
       <c r="E243">
-        <v>0.969296375466089</v>
+        <v>0.9692963754660892</v>
       </c>
       <c r="F243">
         <v>0.8774386196176842</v>
       </c>
       <c r="G243">
-        <v>0.9121849304395554</v>
+        <v>0.9121849304395555</v>
       </c>
       <c r="H243">
         <v>0.9573275525125878</v>
@@ -6704,10 +6704,10 @@
         <v>0.9355612194617265</v>
       </c>
       <c r="F244">
-        <v>0.8689748227910361</v>
+        <v>0.8689748227910364</v>
       </c>
       <c r="G244">
-        <v>0.9190996664120357</v>
+        <v>0.9190996664120361</v>
       </c>
       <c r="H244">
         <v>0.9236047040489547</v>
@@ -6756,7 +6756,7 @@
         <v>1.117876887666871</v>
       </c>
       <c r="F246">
-        <v>0.7947651936036215</v>
+        <v>0.7947651936036214</v>
       </c>
       <c r="G246">
         <v>1.155696384818647</v>
@@ -6799,7 +6799,7 @@
         <v>0.8497020614242122</v>
       </c>
       <c r="C248">
-        <v>1.413943023766275</v>
+        <v>1.413943023766276</v>
       </c>
       <c r="D248">
         <v>0.8874772970743249</v>
@@ -6822,19 +6822,19 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.8602588324368802</v>
+        <v>0.8602588324368803</v>
       </c>
       <c r="C249">
         <v>1.213333772147211</v>
       </c>
       <c r="D249">
-        <v>0.4552576630549074</v>
+        <v>0.4552576630549075</v>
       </c>
       <c r="E249">
         <v>0.9677656088104597</v>
       </c>
       <c r="F249">
-        <v>0.7796154797839953</v>
+        <v>0.7796154797839954</v>
       </c>
       <c r="G249">
         <v>0.9316462669892487</v>
@@ -6880,7 +6880,7 @@
         <v>1.453325723748239</v>
       </c>
       <c r="D251">
-        <v>0.8738878384791594</v>
+        <v>0.8738878384791593</v>
       </c>
       <c r="E251">
         <v>1.166129841691028</v>
@@ -6912,10 +6912,10 @@
         <v>1.026797604148336</v>
       </c>
       <c r="F252">
-        <v>0.982492933249799</v>
+        <v>0.9824929332497989</v>
       </c>
       <c r="G252">
-        <v>1.02426213298352</v>
+        <v>1.024262132983521</v>
       </c>
       <c r="H252">
         <v>1.032650103747945</v>
@@ -6926,7 +6926,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0.9263869836751862</v>
+        <v>0.9263869836751865</v>
       </c>
       <c r="C253">
         <v>1.753373374313754</v>
@@ -6935,10 +6935,10 @@
         <v>0.504274609764694</v>
       </c>
       <c r="E253">
-        <v>1.245424691766552</v>
+        <v>1.245424691766553</v>
       </c>
       <c r="F253">
-        <v>0.8802832685375832</v>
+        <v>0.8802832685375831</v>
       </c>
       <c r="G253">
         <v>1.228591487061431</v>
@@ -6952,7 +6952,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0.9879407027678667</v>
+        <v>0.9879407027678669</v>
       </c>
       <c r="C254">
         <v>1.932229127637289</v>
@@ -6978,7 +6978,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>0.9263869836751862</v>
+        <v>0.9263869836751863</v>
       </c>
       <c r="C255">
         <v>1.753373374313754</v>
@@ -6987,7 +6987,7 @@
         <v>0.504274609764694</v>
       </c>
       <c r="E255">
-        <v>1.245424691766553</v>
+        <v>1.245424691766552</v>
       </c>
       <c r="F255">
         <v>0.8802832685375832</v>
@@ -7010,13 +7010,13 @@
         <v>1.65653700307682</v>
       </c>
       <c r="D256">
-        <v>0.6219049287432734</v>
+        <v>0.6219049287432735</v>
       </c>
       <c r="E256">
-        <v>1.181953010134373</v>
+        <v>1.181953010134374</v>
       </c>
       <c r="F256">
-        <v>0.8281272463912501</v>
+        <v>0.8281272463912502</v>
       </c>
       <c r="G256">
         <v>1.212498313653305</v>
@@ -7048,7 +7048,7 @@
         <v>0.9400379116442792</v>
       </c>
       <c r="H257">
-        <v>0.9642746290024582</v>
+        <v>0.9642746290024583</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7056,7 +7056,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0.8619644418680061</v>
+        <v>0.8619644418680064</v>
       </c>
       <c r="C258">
         <v>1.285484607917151</v>
@@ -7071,10 +7071,10 @@
         <v>0.8179555217652814</v>
       </c>
       <c r="G258">
-        <v>0.900798620840182</v>
+        <v>0.9007986208401821</v>
       </c>
       <c r="H258">
-        <v>0.95588186249956</v>
+        <v>0.9558818624995598</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7082,7 +7082,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0.8619644418680062</v>
+        <v>0.8619644418680064</v>
       </c>
       <c r="C259">
         <v>1.285484607917151</v>
@@ -7100,7 +7100,7 @@
         <v>0.900798620840182</v>
       </c>
       <c r="H259">
-        <v>0.95588186249956</v>
+        <v>0.9558818624995598</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7111,7 +7111,7 @@
         <v>0.5419915119090825</v>
       </c>
       <c r="C260">
-        <v>0.6505426007250174</v>
+        <v>0.6505426007250172</v>
       </c>
       <c r="D260">
         <v>0.4859055497680788</v>
@@ -7123,7 +7123,7 @@
         <v>0.5227569614598798</v>
       </c>
       <c r="G260">
-        <v>0.5415828156767644</v>
+        <v>0.5415828156767645</v>
       </c>
       <c r="H260">
         <v>0.5467661312930168</v>
@@ -7192,7 +7192,7 @@
         <v>0.8720880462584772</v>
       </c>
       <c r="D263">
-        <v>0.4726469570513402</v>
+        <v>0.4726469570513401</v>
       </c>
       <c r="E263">
         <v>0.6191951328874438</v>
@@ -7218,7 +7218,7 @@
         <v>0.8054890900674745</v>
       </c>
       <c r="D264">
-        <v>0.3704065012527261</v>
+        <v>0.370406501252726</v>
       </c>
       <c r="E264">
         <v>0.5684778653233331</v>
@@ -7227,7 +7227,7 @@
         <v>0.4421260001089494</v>
       </c>
       <c r="G264">
-        <v>0.6117286288089981</v>
+        <v>0.611728628808998</v>
       </c>
       <c r="H264">
         <v>0.5529718230019812</v>
@@ -7241,16 +7241,16 @@
         <v>0.4550636706178324</v>
       </c>
       <c r="C265">
-        <v>0.8054890900674745</v>
+        <v>0.8054890900674744</v>
       </c>
       <c r="D265">
-        <v>0.3704065012527261</v>
+        <v>0.370406501252726</v>
       </c>
       <c r="E265">
         <v>0.5684778653233329</v>
       </c>
       <c r="F265">
-        <v>0.4421260001089495</v>
+        <v>0.4421260001089494</v>
       </c>
       <c r="G265">
         <v>0.611728628808998</v>
@@ -7264,16 +7264,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.5819984511206945</v>
+        <v>0.5819984511206946</v>
       </c>
       <c r="C266">
         <v>1.174356781528098</v>
       </c>
       <c r="D266">
-        <v>0.4012243713890187</v>
+        <v>0.4012243713890186</v>
       </c>
       <c r="E266">
-        <v>0.7934847055510525</v>
+        <v>0.7934847055510527</v>
       </c>
       <c r="F266">
         <v>0.5561542066610559</v>
@@ -7293,10 +7293,10 @@
         <v>0.4550636706178324</v>
       </c>
       <c r="C267">
-        <v>0.8054890900674745</v>
+        <v>0.8054890900674744</v>
       </c>
       <c r="D267">
-        <v>0.3704065012527261</v>
+        <v>0.370406501252726</v>
       </c>
       <c r="E267">
         <v>0.568477865323333</v>
@@ -7305,7 +7305,7 @@
         <v>0.4421260001089495</v>
       </c>
       <c r="G267">
-        <v>0.611728628808998</v>
+        <v>0.6117286288089979</v>
       </c>
       <c r="H267">
         <v>0.5529718230019812</v>
@@ -7374,7 +7374,7 @@
         <v>0.9856464774596401</v>
       </c>
       <c r="D270">
-        <v>0.3346099585973334</v>
+        <v>0.3346099585973333</v>
       </c>
       <c r="E270">
         <v>0.7005028394183692</v>
@@ -7383,10 +7383,10 @@
         <v>0.3834399307004618</v>
       </c>
       <c r="G270">
-        <v>0.7261885617583269</v>
+        <v>0.726188561758327</v>
       </c>
       <c r="H270">
-        <v>0.6665813653962507</v>
+        <v>0.6665813653962505</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7397,19 +7397,19 @@
         <v>0.4533141275170546</v>
       </c>
       <c r="C271">
-        <v>0.8389932070654016</v>
+        <v>0.8389932070654015</v>
       </c>
       <c r="D271">
         <v>0.2719675640158147</v>
       </c>
       <c r="E271">
-        <v>0.673115347232538</v>
+        <v>0.6731153472325377</v>
       </c>
       <c r="F271">
-        <v>0.4072581397209273</v>
+        <v>0.4072581397209274</v>
       </c>
       <c r="G271">
-        <v>0.5998578200073199</v>
+        <v>0.5998578200073198</v>
       </c>
       <c r="H271">
         <v>0.6205674505786349</v>
@@ -7423,19 +7423,19 @@
         <v>0.4533141275170546</v>
       </c>
       <c r="C272">
-        <v>0.8389932070654016</v>
+        <v>0.8389932070654015</v>
       </c>
       <c r="D272">
         <v>0.2719675640158148</v>
       </c>
       <c r="E272">
-        <v>0.6731153472325379</v>
+        <v>0.6731153472325377</v>
       </c>
       <c r="F272">
-        <v>0.4072581397209273</v>
+        <v>0.4072581397209274</v>
       </c>
       <c r="G272">
-        <v>0.5998578200073199</v>
+        <v>0.5998578200073198</v>
       </c>
       <c r="H272">
         <v>0.6205674505786349</v>
@@ -7446,7 +7446,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.399354962869952</v>
+        <v>0.3993549628699518</v>
       </c>
       <c r="C273">
         <v>1.017440642604695</v>
@@ -7455,16 +7455,16 @@
         <v>0.3219070095177287</v>
       </c>
       <c r="E273">
-        <v>0.6963073459255069</v>
+        <v>0.696307345925507</v>
       </c>
       <c r="F273">
         <v>0.3913062294212122</v>
       </c>
       <c r="G273">
-        <v>0.7329197283394725</v>
+        <v>0.7329197283394726</v>
       </c>
       <c r="H273">
-        <v>0.6661644326631773</v>
+        <v>0.666164432663177</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7472,7 +7472,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.399354962869952</v>
+        <v>0.3993549628699519</v>
       </c>
       <c r="C274">
         <v>1.017440642604695</v>
@@ -7481,7 +7481,7 @@
         <v>0.3219070095177287</v>
       </c>
       <c r="E274">
-        <v>0.6963073459255069</v>
+        <v>0.696307345925507</v>
       </c>
       <c r="F274">
         <v>0.3913062294212122</v>
@@ -7490,7 +7490,7 @@
         <v>0.7329197283394725</v>
       </c>
       <c r="H274">
-        <v>0.6661644326631772</v>
+        <v>0.666164432663177</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7501,7 +7501,7 @@
         <v>0.6176487962176828</v>
       </c>
       <c r="C275">
-        <v>0.568865220326168</v>
+        <v>0.5688652203261683</v>
       </c>
       <c r="D275">
         <v>0.6550968185986671</v>
@@ -7513,7 +7513,7 @@
         <v>0.5960010658524378</v>
       </c>
       <c r="G275">
-        <v>0.5543608644536442</v>
+        <v>0.5543608644536443</v>
       </c>
       <c r="H275">
         <v>0.5739060407402282</v>
@@ -7542,7 +7542,7 @@
         <v>0.5274612860971223</v>
       </c>
       <c r="H276">
-        <v>0.5329418735435161</v>
+        <v>0.5329418735435162</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7559,13 +7559,13 @@
         <v>0.483386771164723</v>
       </c>
       <c r="E277">
-        <v>0.8354701849217596</v>
+        <v>0.8354701849217595</v>
       </c>
       <c r="F277">
         <v>0.6348525002065462</v>
       </c>
       <c r="G277">
-        <v>0.8345636560017087</v>
+        <v>0.834563656001709</v>
       </c>
       <c r="H277">
         <v>0.7925924180155907</v>
@@ -7594,7 +7594,7 @@
         <v>0.9403426633133213</v>
       </c>
       <c r="H278">
-        <v>0.9467644303386024</v>
+        <v>0.9467644303386022</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7611,7 +7611,7 @@
         <v>0.2465502276383506</v>
       </c>
       <c r="E279">
-        <v>0.9286862605687191</v>
+        <v>0.9286862605687192</v>
       </c>
       <c r="F279">
         <v>0.7961357186318707</v>
@@ -7620,7 +7620,7 @@
         <v>0.8698166374795585</v>
       </c>
       <c r="H279">
-        <v>0.8935543533313572</v>
+        <v>0.8935543533313574</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7628,10 +7628,10 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.8362838410691957</v>
+        <v>0.8362838410691958</v>
       </c>
       <c r="C280">
-        <v>1.148736839015136</v>
+        <v>1.148736839015135</v>
       </c>
       <c r="D280">
         <v>0.2465502276383506</v>
@@ -7646,7 +7646,7 @@
         <v>0.8698166374795586</v>
       </c>
       <c r="H280">
-        <v>0.8935543533313572</v>
+        <v>0.8935543533313574</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7654,7 +7654,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>0.4726303665616906</v>
+        <v>0.4726303665616907</v>
       </c>
       <c r="C281">
         <v>0.7428045491690581</v>
@@ -7680,22 +7680,22 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>0.4376340323364554</v>
+        <v>0.4376340323364555</v>
       </c>
       <c r="C282">
-        <v>0.6579350110604641</v>
+        <v>0.6579350110604639</v>
       </c>
       <c r="D282">
         <v>0.2340536709852933</v>
       </c>
       <c r="E282">
-        <v>0.5480704602892955</v>
+        <v>0.5480704602892956</v>
       </c>
       <c r="F282">
         <v>0.4072606077729042</v>
       </c>
       <c r="G282">
-        <v>0.5327291306613919</v>
+        <v>0.532729130661392</v>
       </c>
       <c r="H282">
         <v>0.5169408817406</v>
@@ -7706,7 +7706,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>0.4376340323364554</v>
+        <v>0.4376340323364555</v>
       </c>
       <c r="C283">
         <v>0.657935011060464</v>
@@ -7718,7 +7718,7 @@
         <v>0.5480704602892956</v>
       </c>
       <c r="F283">
-        <v>0.4072606077729042</v>
+        <v>0.4072606077729041</v>
       </c>
       <c r="G283">
         <v>0.5327291306613919</v>
@@ -7732,7 +7732,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0.4376340323364554</v>
+        <v>0.4376340323364555</v>
       </c>
       <c r="C284">
         <v>0.6579350110604641</v>
@@ -7747,7 +7747,7 @@
         <v>0.4072606077729042</v>
       </c>
       <c r="G284">
-        <v>0.5327291306613919</v>
+        <v>0.532729130661392</v>
       </c>
       <c r="H284">
         <v>0.5169408817406</v>
@@ -7776,7 +7776,7 @@
         <v>0.5274612860971223</v>
       </c>
       <c r="H285">
-        <v>0.5329418735435161</v>
+        <v>0.5329418735435162</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7787,7 +7787,7 @@
         <v>0.8362838410691956</v>
       </c>
       <c r="C286">
-        <v>1.148736839015136</v>
+        <v>1.148736839015135</v>
       </c>
       <c r="D286">
         <v>0.2465502276383506</v>
@@ -7802,7 +7802,7 @@
         <v>0.8698166374795585</v>
       </c>
       <c r="H286">
-        <v>0.8935543533313572</v>
+        <v>0.8935543533313574</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7810,7 +7810,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>0.7331232100414067</v>
+        <v>0.7331232100414068</v>
       </c>
       <c r="C287">
         <v>1.310917160860273</v>
@@ -7819,7 +7819,7 @@
         <v>0.5694252398830926</v>
       </c>
       <c r="E287">
-        <v>0.9350497328517163</v>
+        <v>0.9350497328517164</v>
       </c>
       <c r="F287">
         <v>0.7260784668366606</v>
@@ -7828,7 +7828,7 @@
         <v>0.9603988626926941</v>
       </c>
       <c r="H287">
-        <v>0.9100323221028023</v>
+        <v>0.9100323221028024</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7836,7 +7836,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.5440916547068909</v>
+        <v>0.5440916547068908</v>
       </c>
       <c r="C288">
         <v>1.181643027899042</v>
@@ -7851,10 +7851,10 @@
         <v>0.5480792932946182</v>
       </c>
       <c r="G288">
-        <v>0.8276009483417326</v>
+        <v>0.8276009483417327</v>
       </c>
       <c r="H288">
-        <v>0.7786018284218729</v>
+        <v>0.778601828421873</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7903,7 +7903,7 @@
         <v>0.7059611092476741</v>
       </c>
       <c r="G290">
-        <v>0.9970721529126185</v>
+        <v>0.9970721529126186</v>
       </c>
       <c r="H290">
         <v>0.9449948037241099</v>
@@ -7914,7 +7914,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.4988360352419736</v>
+        <v>0.4988360352419737</v>
       </c>
       <c r="C291">
         <v>1.072426059488351</v>
@@ -7955,7 +7955,7 @@
         <v>0.6019032636948496</v>
       </c>
       <c r="G292">
-        <v>0.8331988129576118</v>
+        <v>0.833198812957612</v>
       </c>
       <c r="H292">
         <v>0.8255604227830096</v>
@@ -7966,7 +7966,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>0.6146023992903217</v>
+        <v>0.6146023992903215</v>
       </c>
       <c r="C293">
         <v>1.209498864223303</v>
@@ -7975,7 +7975,7 @@
         <v>0.3776751699877229</v>
       </c>
       <c r="E293">
-        <v>0.856590731265972</v>
+        <v>0.8565907312659721</v>
       </c>
       <c r="F293">
         <v>0.6142413028300918</v>
@@ -8007,7 +8007,7 @@
         <v>0.5875013770922966</v>
       </c>
       <c r="G294">
-        <v>0.8808557969656424</v>
+        <v>0.8808557969656425</v>
       </c>
       <c r="H294">
         <v>0.8704873143851631</v>
@@ -8021,7 +8021,7 @@
         <v>0.7751950753664869</v>
       </c>
       <c r="C295">
-        <v>0.5783089424620371</v>
+        <v>0.578308942462037</v>
       </c>
       <c r="D295">
         <v>0.7878040753181924</v>
@@ -8050,7 +8050,7 @@
         <v>0.6072232592669903</v>
       </c>
       <c r="D296">
-        <v>0.8506964173075905</v>
+        <v>0.8506964173075903</v>
       </c>
       <c r="E296">
         <v>0.7444694974680621</v>
@@ -8070,22 +8070,22 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>0.7618535942282593</v>
+        <v>0.7618535942282595</v>
       </c>
       <c r="C297">
         <v>0.9910089483675127</v>
       </c>
       <c r="D297">
-        <v>0.7180844392568675</v>
+        <v>0.7180844392568676</v>
       </c>
       <c r="E297">
         <v>0.8609580214013371</v>
       </c>
       <c r="F297">
-        <v>0.7507443754621334</v>
+        <v>0.7507443754621335</v>
       </c>
       <c r="G297">
-        <v>0.8374631922964386</v>
+        <v>0.8374631922964387</v>
       </c>
       <c r="H297">
         <v>0.8413613778727043</v>
@@ -8105,10 +8105,10 @@
         <v>0.805043511330589</v>
       </c>
       <c r="E298">
-        <v>0.7070748855242958</v>
+        <v>0.7070748855242956</v>
       </c>
       <c r="F298">
-        <v>0.761833619087198</v>
+        <v>0.7618336190871983</v>
       </c>
       <c r="G298">
         <v>0.6635332471013613</v>
@@ -8137,7 +8137,7 @@
         <v>0.7074395304797928</v>
       </c>
       <c r="G299">
-        <v>0.7791575413952377</v>
+        <v>0.7791575413952379</v>
       </c>
       <c r="H299">
         <v>0.7855108896859453</v>
@@ -8151,13 +8151,13 @@
         <v>0.7751950753664869</v>
       </c>
       <c r="C300">
-        <v>0.5783089424620371</v>
+        <v>0.578308942462037</v>
       </c>
       <c r="D300">
         <v>0.7878040753181924</v>
       </c>
       <c r="E300">
-        <v>0.7218881029050994</v>
+        <v>0.7218881029050995</v>
       </c>
       <c r="F300">
         <v>0.7732219045487958</v>
@@ -8166,7 +8166,7 @@
         <v>0.6512876870898603</v>
       </c>
       <c r="H300">
-        <v>0.7276224462361207</v>
+        <v>0.7276224462361208</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8177,10 +8177,10 @@
         <v>0.7874208105226247</v>
       </c>
       <c r="C301">
-        <v>0.9431625075479343</v>
+        <v>0.9431625075479344</v>
       </c>
       <c r="D301">
-        <v>0.7682933839306934</v>
+        <v>0.7682933839306932</v>
       </c>
       <c r="E301">
         <v>0.8504391373494522</v>
@@ -8238,7 +8238,7 @@
         <v>1.024482684679495</v>
       </c>
       <c r="F303">
-        <v>0.6446648353645992</v>
+        <v>0.6446648353645993</v>
       </c>
       <c r="G303">
         <v>1.042417088172507</v>
@@ -8261,7 +8261,7 @@
         <v>0.6670916093180956</v>
       </c>
       <c r="E304">
-        <v>0.7835011072175418</v>
+        <v>0.7835011072175417</v>
       </c>
       <c r="F304">
         <v>0.7074029040556606</v>
@@ -8278,10 +8278,10 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.7337024589577978</v>
+        <v>0.733702458957798</v>
       </c>
       <c r="C305">
-        <v>0.8552603146131815</v>
+        <v>0.8552603146131814</v>
       </c>
       <c r="D305">
         <v>0.6670916093180956</v>
@@ -8293,10 +8293,10 @@
         <v>0.7074029040556606</v>
       </c>
       <c r="G305">
-        <v>0.7370163896310717</v>
+        <v>0.7370163896310716</v>
       </c>
       <c r="H305">
-        <v>0.75783528455469</v>
+        <v>0.7578352845546902</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8316,13 +8316,13 @@
         <v>0.7826533407640753</v>
       </c>
       <c r="F306">
-        <v>0.7480967884013628</v>
+        <v>0.748096788401363</v>
       </c>
       <c r="G306">
         <v>0.6572411374499121</v>
       </c>
       <c r="H306">
-        <v>0.7493755234766039</v>
+        <v>0.749375523476604</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8330,7 +8330,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.7337024589577978</v>
+        <v>0.733702458957798</v>
       </c>
       <c r="C307">
         <v>0.8552603146131814</v>
@@ -8368,7 +8368,7 @@
         <v>0.8780429708555071</v>
       </c>
       <c r="F308">
-        <v>0.7056905456579801</v>
+        <v>0.70569054565798</v>
       </c>
       <c r="G308">
         <v>0.8379540552983131</v>
@@ -8385,7 +8385,7 @@
         <v>0.79749069549482</v>
       </c>
       <c r="C309">
-        <v>0.7650247980233934</v>
+        <v>0.7650247980233933</v>
       </c>
       <c r="D309">
         <v>0.5594681582285455</v>
@@ -8394,13 +8394,13 @@
         <v>0.7826533407640753</v>
       </c>
       <c r="F309">
-        <v>0.7480967884013628</v>
+        <v>0.748096788401363</v>
       </c>
       <c r="G309">
         <v>0.6572411374499121</v>
       </c>
       <c r="H309">
-        <v>0.749375523476604</v>
+        <v>0.7493755234766042</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8408,22 +8408,22 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.6845958193332689</v>
+        <v>0.6845958193332691</v>
       </c>
       <c r="C310">
         <v>1.202878013552617</v>
       </c>
       <c r="D310">
-        <v>0.6157305637990189</v>
+        <v>0.615730563799019</v>
       </c>
       <c r="E310">
-        <v>0.907075210210798</v>
+        <v>0.9070752102107978</v>
       </c>
       <c r="F310">
-        <v>0.6674569967773457</v>
+        <v>0.6674569967773456</v>
       </c>
       <c r="G310">
-        <v>0.9303635566923021</v>
+        <v>0.9303635566923022</v>
       </c>
       <c r="H310">
         <v>0.8695671580221876</v>
@@ -8434,10 +8434,10 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.4988400316143125</v>
+        <v>0.4988400316143123</v>
       </c>
       <c r="C311">
-        <v>0.7479865356787836</v>
+        <v>0.7479865356787837</v>
       </c>
       <c r="D311">
         <v>0.1936871855440653</v>
@@ -8452,7 +8452,7 @@
         <v>0.551742933339046</v>
       </c>
       <c r="H311">
-        <v>0.5707474595393682</v>
+        <v>0.5707474595393683</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8460,10 +8460,10 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0.55931388262093</v>
+        <v>0.5593138826209298</v>
       </c>
       <c r="C312">
-        <v>0.5176588809685772</v>
+        <v>0.5176588809685773</v>
       </c>
       <c r="D312">
         <v>0.2229585494420915</v>
@@ -8489,7 +8489,7 @@
         <v>0.4988400316143125</v>
       </c>
       <c r="C313">
-        <v>0.7479865356787836</v>
+        <v>0.7479865356787838</v>
       </c>
       <c r="D313">
         <v>0.1936871855440653</v>
@@ -8504,7 +8504,7 @@
         <v>0.551742933339046</v>
       </c>
       <c r="H313">
-        <v>0.5707474595393683</v>
+        <v>0.5707474595393685</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8512,10 +8512,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.4988400316143125</v>
+        <v>0.4988400316143123</v>
       </c>
       <c r="C314">
-        <v>0.7479865356787836</v>
+        <v>0.7479865356787837</v>
       </c>
       <c r="D314">
         <v>0.1936871855440653</v>
@@ -8530,7 +8530,7 @@
         <v>0.551742933339046</v>
       </c>
       <c r="H314">
-        <v>0.5707474595393682</v>
+        <v>0.5707474595393683</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8544,7 +8544,7 @@
         <v>1.294132277832543</v>
       </c>
       <c r="D315">
-        <v>0.8526114437684403</v>
+        <v>0.8526114437684406</v>
       </c>
       <c r="E315">
         <v>1.116006552930335</v>
@@ -8605,7 +8605,7 @@
         <v>1.129004269886667</v>
       </c>
       <c r="G317">
-        <v>0.9977197924304283</v>
+        <v>0.9977197924304285</v>
       </c>
       <c r="H317">
         <v>1.055041323824019</v>
@@ -8642,7 +8642,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1.038617209411511</v>
+        <v>1.038617209411512</v>
       </c>
       <c r="C319">
         <v>0.796082550570043</v>
@@ -8660,7 +8660,7 @@
         <v>0.8332642177520201</v>
       </c>
       <c r="H319">
-        <v>0.9683151057291677</v>
+        <v>0.9683151057291678</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8671,7 +8671,7 @@
         <v>1.043231575304316</v>
       </c>
       <c r="C320">
-        <v>0.8190399910430644</v>
+        <v>0.8190399910430642</v>
       </c>
       <c r="D320">
         <v>1.110571894069008</v>
@@ -8683,7 +8683,7 @@
         <v>1.064391739949072</v>
       </c>
       <c r="G320">
-        <v>0.9103587422752152</v>
+        <v>0.9103587422752153</v>
       </c>
       <c r="H320">
         <v>0.9896149845743546</v>
@@ -8703,7 +8703,7 @@
         <v>1.105108145701546</v>
       </c>
       <c r="E321">
-        <v>0.9978890073342952</v>
+        <v>0.9978890073342954</v>
       </c>
       <c r="F321">
         <v>1.085907484054601</v>
@@ -8726,7 +8726,7 @@
         <v>1.860298013115446</v>
       </c>
       <c r="D322">
-        <v>0.5650121335436531</v>
+        <v>0.5650121335436532</v>
       </c>
       <c r="E322">
         <v>1.316033483921695</v>
@@ -8749,7 +8749,7 @@
         <v>1.046790528000613</v>
       </c>
       <c r="C323">
-        <v>0.8618152399533432</v>
+        <v>0.8618152399533433</v>
       </c>
       <c r="D323">
         <v>1.029695891881822</v>
@@ -8787,10 +8787,10 @@
         <v>1.048657917385463</v>
       </c>
       <c r="G324">
-        <v>0.8946814253528054</v>
+        <v>0.8946814253528055</v>
       </c>
       <c r="H324">
-        <v>0.9762115751218053</v>
+        <v>0.9762115751218055</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8813,10 +8813,10 @@
         <v>1.048657917385463</v>
       </c>
       <c r="G325">
-        <v>0.8946814253528054</v>
+        <v>0.8946814253528057</v>
       </c>
       <c r="H325">
-        <v>0.9762115751218051</v>
+        <v>0.9762115751218052</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8827,7 +8827,7 @@
         <v>1.115160417307059</v>
       </c>
       <c r="C326">
-        <v>0.959439972293795</v>
+        <v>0.9594399722937952</v>
       </c>
       <c r="D326">
         <v>1.083351256380676</v>
@@ -8856,7 +8856,7 @@
         <v>1.575322644738684</v>
       </c>
       <c r="D327">
-        <v>0.5277040080649488</v>
+        <v>0.5277040080649489</v>
       </c>
       <c r="E327">
         <v>1.183629536674647</v>
@@ -8876,13 +8876,13 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>0.9180422346812418</v>
+        <v>0.918042234681242</v>
       </c>
       <c r="C328">
         <v>1.730216138158801</v>
       </c>
       <c r="D328">
-        <v>0.4272474360489416</v>
+        <v>0.4272474360489417</v>
       </c>
       <c r="E328">
         <v>1.256847334920221</v>
@@ -8928,7 +8928,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>0.9180422346812418</v>
+        <v>0.918042234681242</v>
       </c>
       <c r="C330">
         <v>1.7302161381588</v>
@@ -8940,7 +8940,7 @@
         <v>1.256847334920221</v>
       </c>
       <c r="F330">
-        <v>0.8682150954089666</v>
+        <v>0.8682150954089665</v>
       </c>
       <c r="G330">
         <v>1.192693640722315</v>
@@ -8954,7 +8954,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.9810149758805858</v>
+        <v>0.9810149758805861</v>
       </c>
       <c r="C331">
         <v>1.140768430346611</v>
@@ -8966,10 +8966,10 @@
         <v>1.042569382186333</v>
       </c>
       <c r="F331">
-        <v>0.9314513077284841</v>
+        <v>0.9314513077284842</v>
       </c>
       <c r="G331">
-        <v>0.8701758472719794</v>
+        <v>0.8701758472719796</v>
       </c>
       <c r="H331">
         <v>0.9992035287856154</v>
@@ -8983,13 +8983,13 @@
         <v>0.9359038989740196</v>
       </c>
       <c r="C332">
-        <v>1.656745958331669</v>
+        <v>1.656745958331668</v>
       </c>
       <c r="D332">
-        <v>0.5751580796102024</v>
+        <v>0.5751580796102025</v>
       </c>
       <c r="E332">
-        <v>1.184558293997323</v>
+        <v>1.184558293997324</v>
       </c>
       <c r="F332">
         <v>0.8910838847771348</v>
@@ -9024,7 +9024,7 @@
         <v>1.029677482328754</v>
       </c>
       <c r="H333">
-        <v>1.014122033716848</v>
+        <v>1.014122033716849</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9064,7 +9064,7 @@
         <v>1.712369825702057</v>
       </c>
       <c r="D335">
-        <v>0.6619884447991874</v>
+        <v>0.6619884447991876</v>
       </c>
       <c r="E335">
         <v>1.199125726881</v>
@@ -9119,16 +9119,16 @@
         <v>0.512920697776781</v>
       </c>
       <c r="E337">
-        <v>0.5450366043070743</v>
+        <v>0.5450366043070745</v>
       </c>
       <c r="F337">
-        <v>0.5155200777747964</v>
+        <v>0.5155200777747962</v>
       </c>
       <c r="G337">
         <v>0.516743241196133</v>
       </c>
       <c r="H337">
-        <v>0.5197592916574197</v>
+        <v>0.5197592916574196</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9139,7 +9139,7 @@
         <v>0.4968121317087857</v>
       </c>
       <c r="C338">
-        <v>0.5063124254573825</v>
+        <v>0.5063124254573826</v>
       </c>
       <c r="D338">
         <v>0.5841105896711114</v>
@@ -9180,7 +9180,7 @@
         <v>0.5167432411961331</v>
       </c>
       <c r="H339">
-        <v>0.5197592916574199</v>
+        <v>0.5197592916574197</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9200,10 +9200,10 @@
         <v>0.5379532834803428</v>
       </c>
       <c r="F340">
-        <v>0.4223457384381161</v>
+        <v>0.4223457384381162</v>
       </c>
       <c r="G340">
-        <v>0.5435411656629172</v>
+        <v>0.5435411656629173</v>
       </c>
       <c r="H340">
         <v>0.5066246191595485</v>
@@ -9214,13 +9214,13 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>0.4610796374385149</v>
+        <v>0.4610796374385148</v>
       </c>
       <c r="C341">
         <v>0.6075231086378099</v>
       </c>
       <c r="D341">
-        <v>0.4559306286851222</v>
+        <v>0.4559306286851221</v>
       </c>
       <c r="E341">
         <v>0.5106376299796207</v>
@@ -9240,7 +9240,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.4561144641716984</v>
+        <v>0.4561144641716983</v>
       </c>
       <c r="C342">
         <v>0.7931723118349797</v>
@@ -9266,7 +9266,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>0.4561144641716984</v>
+        <v>0.4561144641716983</v>
       </c>
       <c r="C343">
         <v>0.7931723118349798</v>
@@ -9281,7 +9281,7 @@
         <v>0.4237206797840445</v>
       </c>
       <c r="G343">
-        <v>0.6166706669158515</v>
+        <v>0.6166706669158516</v>
       </c>
       <c r="H343">
         <v>0.5673542267370999</v>
@@ -9295,7 +9295,7 @@
         <v>0.4616512706660181</v>
       </c>
       <c r="C344">
-        <v>0.6672506347868215</v>
+        <v>0.6672506347868216</v>
       </c>
       <c r="D344">
         <v>0.3977645274757774</v>
@@ -9307,7 +9307,7 @@
         <v>0.4223457384381161</v>
       </c>
       <c r="G344">
-        <v>0.5435411656629172</v>
+        <v>0.5435411656629173</v>
       </c>
       <c r="H344">
         <v>0.5066246191595484</v>
@@ -9347,7 +9347,7 @@
         <v>0.357925811273505</v>
       </c>
       <c r="C346">
-        <v>0.52332805225907</v>
+        <v>0.5233280522590701</v>
       </c>
       <c r="D346">
         <v>0.2965874398693198</v>
@@ -9396,7 +9396,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>0.5942281462509807</v>
+        <v>0.5942281462509806</v>
       </c>
       <c r="C348">
         <v>0.8618416263656752</v>
@@ -9431,7 +9431,7 @@
         <v>0.2569918607752419</v>
       </c>
       <c r="E349">
-        <v>0.6931072690960237</v>
+        <v>0.6931072690960236</v>
       </c>
       <c r="F349">
         <v>0.5257898629611657</v>
@@ -9466,7 +9466,7 @@
         <v>0.6409512442374362</v>
       </c>
       <c r="H350">
-        <v>0.6377262238831637</v>
+        <v>0.6377262238831636</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9526,7 +9526,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>0.8340658108668558</v>
+        <v>0.8340658108668559</v>
       </c>
       <c r="C353">
         <v>1.064179252066212</v>
@@ -9541,10 +9541,10 @@
         <v>0.7530647027353012</v>
       </c>
       <c r="G353">
-        <v>0.8417827104346643</v>
+        <v>0.8417827104346647</v>
       </c>
       <c r="H353">
-        <v>0.8145214716859158</v>
+        <v>0.8145214716859157</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9552,7 +9552,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>0.8050212515935741</v>
+        <v>0.8050212515935742</v>
       </c>
       <c r="C354">
         <v>0.9543389306505138</v>
@@ -9567,10 +9567,10 @@
         <v>0.7138481843816569</v>
       </c>
       <c r="G354">
-        <v>0.7355775044268922</v>
+        <v>0.7355775044268923</v>
       </c>
       <c r="H354">
-        <v>0.7459802441966173</v>
+        <v>0.7459802441966175</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9593,7 +9593,7 @@
         <v>0.7460276570462419</v>
       </c>
       <c r="G355">
-        <v>0.874453319367587</v>
+        <v>0.8744533193675871</v>
       </c>
       <c r="H355">
         <v>0.8437079647475695</v>
@@ -9604,13 +9604,13 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>0.5773393955040051</v>
+        <v>0.5773393955040049</v>
       </c>
       <c r="C356">
         <v>0.8828343181500915</v>
       </c>
       <c r="D356">
-        <v>0.4462845446048087</v>
+        <v>0.4462845446048086</v>
       </c>
       <c r="E356">
         <v>0.7181774633447412</v>
@@ -9619,7 +9619,7 @@
         <v>0.53200249925634</v>
       </c>
       <c r="G356">
-        <v>0.7125974493624162</v>
+        <v>0.7125974493624163</v>
       </c>
       <c r="H356">
         <v>0.6693212099982584</v>
@@ -9630,13 +9630,13 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>0.5773393955040051</v>
+        <v>0.5773393955040049</v>
       </c>
       <c r="C357">
         <v>0.8828343181500914</v>
       </c>
       <c r="D357">
-        <v>0.4462845446048087</v>
+        <v>0.4462845446048086</v>
       </c>
       <c r="E357">
         <v>0.7181774633447412</v>
@@ -9656,7 +9656,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>0.5773393955040051</v>
+        <v>0.5773393955040049</v>
       </c>
       <c r="C358">
         <v>0.8828343181500916</v>
@@ -9671,7 +9671,7 @@
         <v>0.5320024992563401</v>
       </c>
       <c r="G358">
-        <v>0.7125974493624162</v>
+        <v>0.7125974493624163</v>
       </c>
       <c r="H358">
         <v>0.6693212099982585</v>
@@ -9682,7 +9682,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>0.2815715122668316</v>
+        <v>0.2815715122668315</v>
       </c>
       <c r="C359">
         <v>0.5383325340619123</v>
@@ -9743,7 +9743,7 @@
         <v>0.5664596409613313</v>
       </c>
       <c r="E361">
-        <v>0.8252112188173464</v>
+        <v>0.8252112188173465</v>
       </c>
       <c r="F361">
         <v>0.632172966290414</v>
@@ -9766,10 +9766,10 @@
         <v>1.214190471641009</v>
       </c>
       <c r="D362">
-        <v>0.3929253194542746</v>
+        <v>0.3929253194542747</v>
       </c>
       <c r="E362">
-        <v>0.8948525785833273</v>
+        <v>0.8948525785833272</v>
       </c>
       <c r="F362">
         <v>0.5170099788130846</v>
@@ -9789,7 +9789,7 @@
         <v>0.6280685831390048</v>
       </c>
       <c r="C363">
-        <v>0.9433396477307688</v>
+        <v>0.9433396477307687</v>
       </c>
       <c r="D363">
         <v>0.3200696826633568</v>
@@ -9821,13 +9821,13 @@
         <v>0.6061116865908618</v>
       </c>
       <c r="E364">
-        <v>0.9436147975517911</v>
+        <v>0.9436147975517909</v>
       </c>
       <c r="F364">
         <v>0.6721013264557354</v>
       </c>
       <c r="G364">
-        <v>0.9901087528816104</v>
+        <v>0.9901087528816103</v>
       </c>
       <c r="H364">
         <v>0.915871580353474</v>
@@ -9838,22 +9838,22 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>0.671820215518852</v>
+        <v>0.6718202155188518</v>
       </c>
       <c r="C365">
-        <v>1.291757141973288</v>
+        <v>1.291757141973289</v>
       </c>
       <c r="D365">
         <v>0.6061116865908618</v>
       </c>
       <c r="E365">
-        <v>0.943614797551791</v>
+        <v>0.9436147975517909</v>
       </c>
       <c r="F365">
         <v>0.6721013264557354</v>
       </c>
       <c r="G365">
-        <v>0.9901087528816105</v>
+        <v>0.9901087528816104</v>
       </c>
       <c r="H365">
         <v>0.9158715803534742</v>
@@ -9873,7 +9873,7 @@
         <v>0.3142011604766521</v>
       </c>
       <c r="E366">
-        <v>0.831656242784917</v>
+        <v>0.8316562427849168</v>
       </c>
       <c r="F366">
         <v>0.537490310786539</v>
@@ -9902,7 +9902,7 @@
         <v>0.831656242784917</v>
       </c>
       <c r="F367">
-        <v>0.5374903107865391</v>
+        <v>0.537490310786539</v>
       </c>
       <c r="G367">
         <v>0.7975471815449564</v>
@@ -9916,7 +9916,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>0.659393455245125</v>
+        <v>0.6593934552451249</v>
       </c>
       <c r="C368">
         <v>1.179693093929782</v>
@@ -9968,7 +9968,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>0.5920141126481464</v>
+        <v>0.5920141126481463</v>
       </c>
       <c r="C370">
         <v>0.9479935664521266</v>
@@ -9983,10 +9983,10 @@
         <v>0.5151138412663394</v>
       </c>
       <c r="G370">
-        <v>0.6636172437716056</v>
+        <v>0.6636172437716055</v>
       </c>
       <c r="H370">
-        <v>0.6899056817115959</v>
+        <v>0.6899056817115962</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -9994,13 +9994,13 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>0.5920141126481464</v>
+        <v>0.5920141126481463</v>
       </c>
       <c r="C371">
         <v>0.9479935664521267</v>
       </c>
       <c r="D371">
-        <v>0.2507173795771199</v>
+        <v>0.2507173795771198</v>
       </c>
       <c r="E371">
         <v>0.755638830880999</v>
@@ -10009,10 +10009,10 @@
         <v>0.5151138412663394</v>
       </c>
       <c r="G371">
-        <v>0.6636172437716054</v>
+        <v>0.6636172437716055</v>
       </c>
       <c r="H371">
-        <v>0.6899056817115959</v>
+        <v>0.6899056817115961</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10020,7 +10020,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>0.5920141126481464</v>
+        <v>0.5920141126481463</v>
       </c>
       <c r="C372">
         <v>0.9479935664521266</v>
@@ -10032,13 +10032,13 @@
         <v>0.755638830880999</v>
       </c>
       <c r="F372">
-        <v>0.5151138412663395</v>
+        <v>0.5151138412663394</v>
       </c>
       <c r="G372">
-        <v>0.6636172437716056</v>
+        <v>0.6636172437716055</v>
       </c>
       <c r="H372">
-        <v>0.6899056817115959</v>
+        <v>0.6899056817115961</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10049,22 +10049,22 @@
         <v>0.6935078067973676</v>
       </c>
       <c r="C373">
-        <v>0.9693587685265493</v>
+        <v>0.9693587685265496</v>
       </c>
       <c r="D373">
         <v>0.4903631875369455</v>
       </c>
       <c r="E373">
-        <v>0.7814821600493109</v>
+        <v>0.781482160049311</v>
       </c>
       <c r="F373">
-        <v>0.6592528191782039</v>
+        <v>0.6592528191782038</v>
       </c>
       <c r="G373">
-        <v>0.7708617411978564</v>
+        <v>0.7708617411978566</v>
       </c>
       <c r="H373">
-        <v>0.751143698414905</v>
+        <v>0.7511436984149051</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10072,22 +10072,22 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.588164294525202</v>
+        <v>0.5881642945252019</v>
       </c>
       <c r="C374">
-        <v>0.780789957571752</v>
+        <v>0.7807899575717521</v>
       </c>
       <c r="D374">
         <v>0.4006998365335678</v>
       </c>
       <c r="E374">
-        <v>0.6618420510891518</v>
+        <v>0.661842051089152</v>
       </c>
       <c r="F374">
         <v>0.5518100893351012</v>
       </c>
       <c r="G374">
-        <v>0.626846461943694</v>
+        <v>0.6268464619436941</v>
       </c>
       <c r="H374">
         <v>0.6300434696501929</v>
@@ -10098,7 +10098,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>0.6943226316711376</v>
+        <v>0.6943226316711377</v>
       </c>
       <c r="C375">
         <v>1.061218466858127</v>
@@ -10107,16 +10107,16 @@
         <v>0.3996225308331261</v>
       </c>
       <c r="E375">
-        <v>0.8208657370865799</v>
+        <v>0.8208657370865801</v>
       </c>
       <c r="F375">
         <v>0.6380705101361434</v>
       </c>
       <c r="G375">
-        <v>0.7946289582981607</v>
+        <v>0.7946289582981609</v>
       </c>
       <c r="H375">
-        <v>0.7722928098711984</v>
+        <v>0.7722928098711985</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10127,7 +10127,7 @@
         <v>0.5908133905234245</v>
       </c>
       <c r="C376">
-        <v>0.8951711566143828</v>
+        <v>0.895171156614383</v>
       </c>
       <c r="D376">
         <v>0.3398485841616877</v>
@@ -10153,7 +10153,7 @@
         <v>0.5908133905234245</v>
       </c>
       <c r="C377">
-        <v>0.895171156614383</v>
+        <v>0.8951711566143831</v>
       </c>
       <c r="D377">
         <v>0.3398485841616877</v>
@@ -10165,7 +10165,7 @@
         <v>0.5376706406589783</v>
       </c>
       <c r="G377">
-        <v>0.6727032074077326</v>
+        <v>0.6727032074077327</v>
       </c>
       <c r="H377">
         <v>0.6598500640914696</v>
@@ -10176,13 +10176,13 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.7937812266341325</v>
+        <v>0.7937812266341326</v>
       </c>
       <c r="C378">
         <v>1.154293506044015</v>
       </c>
       <c r="D378">
-        <v>0.7074412302531664</v>
+        <v>0.7074412302531663</v>
       </c>
       <c r="E378">
         <v>0.9038477885570003</v>
@@ -10191,10 +10191,10 @@
         <v>0.7801701020541532</v>
       </c>
       <c r="G378">
-        <v>0.9511326902657922</v>
+        <v>0.9511326902657923</v>
       </c>
       <c r="H378">
-        <v>0.8838647368635444</v>
+        <v>0.8838647368635446</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10202,13 +10202,13 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>0.7937812266341325</v>
+        <v>0.7937812266341326</v>
       </c>
       <c r="C379">
         <v>1.154293506044015</v>
       </c>
       <c r="D379">
-        <v>0.7074412302531664</v>
+        <v>0.7074412302531663</v>
       </c>
       <c r="E379">
         <v>0.9038477885570003</v>
@@ -10217,10 +10217,10 @@
         <v>0.7801701020541532</v>
       </c>
       <c r="G379">
-        <v>0.9511326902657922</v>
+        <v>0.9511326902657923</v>
       </c>
       <c r="H379">
-        <v>0.8838647368635444</v>
+        <v>0.8838647368635446</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10228,7 +10228,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.7946191195036909</v>
+        <v>0.7946191195036911</v>
       </c>
       <c r="C380">
         <v>1.260905435613819</v>
@@ -10237,13 +10237,13 @@
         <v>0.578092818049159</v>
       </c>
       <c r="E380">
-        <v>0.9499863758230064</v>
+        <v>0.9499863758230065</v>
       </c>
       <c r="F380">
         <v>0.7410074491289493</v>
       </c>
       <c r="G380">
-        <v>0.9671106175363798</v>
+        <v>0.9671106175363799</v>
       </c>
       <c r="H380">
         <v>0.8980590568238609</v>
@@ -10254,7 +10254,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>0.7946191195036909</v>
+        <v>0.7946191195036911</v>
       </c>
       <c r="C381">
         <v>1.260905435613819</v>
@@ -10269,7 +10269,7 @@
         <v>0.7410074491289494</v>
       </c>
       <c r="G381">
-        <v>0.9671106175363798</v>
+        <v>0.9671106175363799</v>
       </c>
       <c r="H381">
         <v>0.8980590568238609</v>
@@ -10280,7 +10280,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>0.793241922637225</v>
+        <v>0.7932419226372249</v>
       </c>
       <c r="C382">
         <v>1.130628827112263</v>
@@ -10289,16 +10289,16 @@
         <v>0.4000030955726214</v>
       </c>
       <c r="E382">
-        <v>0.8822798271456511</v>
+        <v>0.8822798271456513</v>
       </c>
       <c r="F382">
         <v>0.7112014173718876</v>
       </c>
       <c r="G382">
-        <v>0.8424210985417376</v>
+        <v>0.8424210985417377</v>
       </c>
       <c r="H382">
-        <v>0.817363400764702</v>
+        <v>0.8173634007647019</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10306,7 +10306,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>0.6657393550807532</v>
+        <v>0.6657393550807531</v>
       </c>
       <c r="C383">
         <v>1.218857409475379</v>
@@ -10332,22 +10332,22 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>0.6169242157592495</v>
+        <v>0.6169242157592494</v>
       </c>
       <c r="C384">
-        <v>0.9818159498053366</v>
+        <v>0.9818159498053367</v>
       </c>
       <c r="D384">
         <v>0.3792128068580501</v>
       </c>
       <c r="E384">
-        <v>0.7699046626663348</v>
+        <v>0.7699046626663351</v>
       </c>
       <c r="F384">
-        <v>0.5727623777359058</v>
+        <v>0.5727623777359059</v>
       </c>
       <c r="G384">
-        <v>0.7336525672805851</v>
+        <v>0.7336525672805853</v>
       </c>
       <c r="H384">
         <v>0.7261853843397008</v>
@@ -10358,7 +10358,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>0.7389050204609784</v>
+        <v>0.7389050204609783</v>
       </c>
       <c r="C385">
         <v>1.431656064545143</v>
@@ -10387,7 +10387,7 @@
         <v>0.4319178910977967</v>
       </c>
       <c r="C386">
-        <v>0.8197382155722838</v>
+        <v>0.819738215572284</v>
       </c>
       <c r="D386">
         <v>0.2702368641671424</v>
@@ -10413,13 +10413,13 @@
         <v>0.4319178910977967</v>
       </c>
       <c r="C387">
-        <v>0.8197382155722838</v>
+        <v>0.819738215572284</v>
       </c>
       <c r="D387">
         <v>0.2702368641671424</v>
       </c>
       <c r="E387">
-        <v>0.6237967879300625</v>
+        <v>0.6237967879300628</v>
       </c>
       <c r="F387">
         <v>0.4088043289849636</v>
@@ -10436,16 +10436,16 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>0.7989214176492905</v>
+        <v>0.7989214176492904</v>
       </c>
       <c r="C388">
-        <v>0.7455801094481828</v>
+        <v>0.7455801094481826</v>
       </c>
       <c r="D388">
         <v>0.9326663339513196</v>
       </c>
       <c r="E388">
-        <v>0.7142942264675588</v>
+        <v>0.7142942264675585</v>
       </c>
       <c r="F388">
         <v>0.7346819114259907</v>
@@ -10454,7 +10454,7 @@
         <v>0.7496011376213815</v>
       </c>
       <c r="H388">
-        <v>0.6753826115134516</v>
+        <v>0.6753826115134515</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10465,13 +10465,13 @@
         <v>0.695249445026485</v>
       </c>
       <c r="C389">
-        <v>0.7331189130071665</v>
+        <v>0.7331189130071664</v>
       </c>
       <c r="D389">
         <v>0.4353606253864145</v>
       </c>
       <c r="E389">
-        <v>0.6672953825940514</v>
+        <v>0.6672953825940512</v>
       </c>
       <c r="F389">
         <v>0.6153096040526134</v>
@@ -10480,7 +10480,7 @@
         <v>0.6280291271741165</v>
       </c>
       <c r="H389">
-        <v>0.6134427273013001</v>
+        <v>0.6134427273013</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10491,13 +10491,13 @@
         <v>0.695249445026485</v>
       </c>
       <c r="C390">
-        <v>0.7331189130071666</v>
+        <v>0.7331189130071664</v>
       </c>
       <c r="D390">
         <v>0.4353606253864144</v>
       </c>
       <c r="E390">
-        <v>0.6672953825940514</v>
+        <v>0.6672953825940512</v>
       </c>
       <c r="F390">
         <v>0.6153096040526135</v>
@@ -10506,7 +10506,7 @@
         <v>0.6280291271741165</v>
       </c>
       <c r="H390">
-        <v>0.6134427273013001</v>
+        <v>0.6134427273012999</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10514,25 +10514,25 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>0.7989214176492906</v>
+        <v>0.7989214176492904</v>
       </c>
       <c r="C391">
-        <v>0.7455801094481828</v>
+        <v>0.7455801094481826</v>
       </c>
       <c r="D391">
         <v>0.9326663339513197</v>
       </c>
       <c r="E391">
-        <v>0.7142942264675588</v>
+        <v>0.7142942264675586</v>
       </c>
       <c r="F391">
-        <v>0.7346819114259908</v>
+        <v>0.7346819114259907</v>
       </c>
       <c r="G391">
         <v>0.7496011376213815</v>
       </c>
       <c r="H391">
-        <v>0.6753826115134517</v>
+        <v>0.6753826115134515</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10543,22 +10543,22 @@
         <v>0.695249445026485</v>
       </c>
       <c r="C392">
-        <v>0.7331189130071666</v>
+        <v>0.7331189130071665</v>
       </c>
       <c r="D392">
         <v>0.4353606253864144</v>
       </c>
       <c r="E392">
-        <v>0.6672953825940514</v>
+        <v>0.6672953825940513</v>
       </c>
       <c r="F392">
         <v>0.6153096040526135</v>
       </c>
       <c r="G392">
-        <v>0.6280291271741166</v>
+        <v>0.6280291271741165</v>
       </c>
       <c r="H392">
-        <v>0.6134427273013001</v>
+        <v>0.6134427273013</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10566,7 +10566,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.5778855622276793</v>
+        <v>0.5778855622276792</v>
       </c>
       <c r="C393">
         <v>0.6462055294261398</v>
@@ -10578,13 +10578,13 @@
         <v>0.5906908618107717</v>
       </c>
       <c r="F393">
-        <v>0.5195403607954792</v>
+        <v>0.5195403607954789</v>
       </c>
       <c r="G393">
-        <v>0.5672099625515715</v>
+        <v>0.5672099625515714</v>
       </c>
       <c r="H393">
-        <v>0.544709416942519</v>
+        <v>0.5447094169425188</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10598,19 +10598,19 @@
         <v>0.6462055294261397</v>
       </c>
       <c r="D394">
-        <v>0.4743661954876844</v>
+        <v>0.4743661954876843</v>
       </c>
       <c r="E394">
-        <v>0.5906908618107717</v>
+        <v>0.5906908618107715</v>
       </c>
       <c r="F394">
         <v>0.5195403607954789</v>
       </c>
       <c r="G394">
-        <v>0.5672099625515715</v>
+        <v>0.5672099625515714</v>
       </c>
       <c r="H394">
-        <v>0.544709416942519</v>
+        <v>0.5447094169425188</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10624,10 +10624,10 @@
         <v>0.6754916166545076</v>
       </c>
       <c r="D395">
-        <v>0.3398546835283949</v>
+        <v>0.3398546835283948</v>
       </c>
       <c r="E395">
-        <v>0.6173576854122933</v>
+        <v>0.617357685412293</v>
       </c>
       <c r="F395">
         <v>0.535893119534034</v>
@@ -10636,7 +10636,7 @@
         <v>0.5571487906409158</v>
       </c>
       <c r="H395">
-        <v>0.5673662525660422</v>
+        <v>0.5673662525660421</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10653,16 +10653,16 @@
         <v>0.3398546835283948</v>
       </c>
       <c r="E396">
-        <v>0.6173576854122931</v>
+        <v>0.617357685412293</v>
       </c>
       <c r="F396">
         <v>0.535893119534034</v>
       </c>
       <c r="G396">
-        <v>0.5571487906409157</v>
+        <v>0.5571487906409155</v>
       </c>
       <c r="H396">
-        <v>0.5673662525660421</v>
+        <v>0.567366252566042</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10673,22 +10673,22 @@
         <v>0.8265612420263562</v>
       </c>
       <c r="C397">
-        <v>0.7479061375703284</v>
+        <v>0.7479061375703283</v>
       </c>
       <c r="D397">
         <v>0.4737917737944912</v>
       </c>
       <c r="E397">
-        <v>0.707516981280805</v>
+        <v>0.7075169812808049</v>
       </c>
       <c r="F397">
-        <v>0.7265578095650893</v>
+        <v>0.7265578095650892</v>
       </c>
       <c r="G397">
         <v>0.6390016586123098</v>
       </c>
       <c r="H397">
-        <v>0.6476268804607307</v>
+        <v>0.6476268804607305</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10699,22 +10699,22 @@
         <v>0.8265612420263562</v>
       </c>
       <c r="C398">
-        <v>0.7479061375703284</v>
+        <v>0.7479061375703283</v>
       </c>
       <c r="D398">
         <v>0.4737917737944912</v>
       </c>
       <c r="E398">
-        <v>0.707516981280805</v>
+        <v>0.7075169812808049</v>
       </c>
       <c r="F398">
         <v>0.7265578095650892</v>
       </c>
       <c r="G398">
-        <v>0.63900165861231</v>
+        <v>0.6390016586123098</v>
       </c>
       <c r="H398">
-        <v>0.6476268804607306</v>
+        <v>0.6476268804607305</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10725,7 +10725,7 @@
         <v>0.6450538961285821</v>
       </c>
       <c r="C399">
-        <v>0.5608819977284252</v>
+        <v>0.5608819977284253</v>
       </c>
       <c r="D399">
         <v>0.6341952718513114</v>
@@ -10737,7 +10737,7 @@
         <v>0.5543607904102067</v>
       </c>
       <c r="G399">
-        <v>0.5420271490837992</v>
+        <v>0.5420271490837993</v>
       </c>
       <c r="H399">
         <v>0.5019586412187389</v>
@@ -10748,25 +10748,25 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>0.6297490488604531</v>
+        <v>0.629749048860453</v>
       </c>
       <c r="C400">
-        <v>0.6007974531978652</v>
+        <v>0.6007974531978653</v>
       </c>
       <c r="D400">
-        <v>0.537703891098375</v>
+        <v>0.5377038910983751</v>
       </c>
       <c r="E400">
         <v>0.5505783681589969</v>
       </c>
       <c r="F400">
-        <v>0.5362152807526197</v>
+        <v>0.5362152807526198</v>
       </c>
       <c r="G400">
         <v>0.5331059383917959</v>
       </c>
       <c r="H400">
-        <v>0.4928324640718858</v>
+        <v>0.4928324640718859</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10777,7 +10777,7 @@
         <v>0.6453810619826728</v>
       </c>
       <c r="C401">
-        <v>0.6079574119200515</v>
+        <v>0.6079574119200516</v>
       </c>
       <c r="D401">
         <v>0.5858138166951948</v>
@@ -10789,7 +10789,7 @@
         <v>0.5517666237226926</v>
       </c>
       <c r="G401">
-        <v>0.5514472360305682</v>
+        <v>0.5514472360305683</v>
       </c>
       <c r="H401">
         <v>0.5091411009328524</v>
@@ -10803,10 +10803,10 @@
         <v>0.6399585860605809</v>
       </c>
       <c r="C402">
-        <v>0.5852906912613126</v>
+        <v>0.5852906912613127</v>
       </c>
       <c r="D402">
-        <v>0.4684935914763904</v>
+        <v>0.4684935914763905</v>
       </c>
       <c r="E402">
         <v>0.5521154493938477</v>
@@ -10818,7 +10818,7 @@
         <v>0.5019670776178473</v>
       </c>
       <c r="H402">
-        <v>0.4904275963134707</v>
+        <v>0.4904275963134708</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10826,13 +10826,13 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.6297490488604532</v>
+        <v>0.6297490488604531</v>
       </c>
       <c r="C403">
-        <v>0.600797453197865</v>
+        <v>0.6007974531978652</v>
       </c>
       <c r="D403">
-        <v>0.537703891098375</v>
+        <v>0.5377038910983751</v>
       </c>
       <c r="E403">
         <v>0.5505783681589969</v>
@@ -10841,7 +10841,7 @@
         <v>0.5362152807526197</v>
       </c>
       <c r="G403">
-        <v>0.5331059383917959</v>
+        <v>0.533105938391796</v>
       </c>
       <c r="H403">
         <v>0.4928324640718857</v>
@@ -10852,7 +10852,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.5678626126412368</v>
+        <v>0.5678626126412366</v>
       </c>
       <c r="C404">
         <v>0.5608096538138514</v>
@@ -10861,7 +10861,7 @@
         <v>0.5321143401664571</v>
       </c>
       <c r="E404">
-        <v>0.5112366897330075</v>
+        <v>0.5112366897330076</v>
       </c>
       <c r="F404">
         <v>0.4887787862105818</v>
@@ -10870,7 +10870,7 @@
         <v>0.5006004620363327</v>
       </c>
       <c r="H404">
-        <v>0.458206435220518</v>
+        <v>0.4582064352205181</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10878,7 +10878,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.5678626126412368</v>
+        <v>0.5678626126412366</v>
       </c>
       <c r="C405">
         <v>0.5608096538138514</v>
@@ -10896,7 +10896,7 @@
         <v>0.5006004620363327</v>
       </c>
       <c r="H405">
-        <v>0.458206435220518</v>
+        <v>0.4582064352205181</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10904,7 +10904,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>0.5678626126412368</v>
+        <v>0.5678626126412366</v>
       </c>
       <c r="C406">
         <v>0.5608096538138514</v>
@@ -10919,10 +10919,10 @@
         <v>0.4887787862105817</v>
       </c>
       <c r="G406">
-        <v>0.5006004620363326</v>
+        <v>0.5006004620363327</v>
       </c>
       <c r="H406">
-        <v>0.458206435220518</v>
+        <v>0.4582064352205181</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10945,10 +10945,10 @@
         <v>0.4448985697040225</v>
       </c>
       <c r="G407">
-        <v>0.4676865856213514</v>
+        <v>0.4676865856213515</v>
       </c>
       <c r="H407">
-        <v>0.4261373538628712</v>
+        <v>0.4261373538628713</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -10971,10 +10971,10 @@
         <v>0.4448985697040225</v>
       </c>
       <c r="G408">
-        <v>0.4676865856213514</v>
+        <v>0.4676865856213515</v>
       </c>
       <c r="H408">
-        <v>0.4261373538628712</v>
+        <v>0.4261373538628713</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -10985,10 +10985,10 @@
         <v>0.5116976642799456</v>
       </c>
       <c r="C409">
-        <v>0.5328910472309175</v>
+        <v>0.5328910472309176</v>
       </c>
       <c r="D409">
-        <v>0.4770650017732638</v>
+        <v>0.4770650017732639</v>
       </c>
       <c r="E409">
         <v>0.4744355520745077</v>
@@ -11008,10 +11008,10 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>0.6889896585585186</v>
+        <v>0.6889896585585183</v>
       </c>
       <c r="C410">
-        <v>0.9738304506668843</v>
+        <v>0.9738304506668845</v>
       </c>
       <c r="D410">
         <v>0.7046167213680115</v>
@@ -11020,7 +11020,7 @@
         <v>0.7842541666516604</v>
       </c>
       <c r="F410">
-        <v>0.6467975496215469</v>
+        <v>0.646797549621547</v>
       </c>
       <c r="G410">
         <v>0.8196980747746045</v>
@@ -11066,7 +11066,7 @@
         <v>0.9062087617452157</v>
       </c>
       <c r="D412">
-        <v>0.5272511805353433</v>
+        <v>0.5272511805353431</v>
       </c>
       <c r="E412">
         <v>0.7292882780801543</v>
@@ -11086,16 +11086,16 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>0.5526969515079514</v>
+        <v>0.5526969515079513</v>
       </c>
       <c r="C413">
         <v>0.8624814028075479</v>
       </c>
       <c r="D413">
-        <v>0.329399601717786</v>
+        <v>0.3293996017177859</v>
       </c>
       <c r="E413">
-        <v>0.6952316746126725</v>
+        <v>0.6952316746126727</v>
       </c>
       <c r="F413">
         <v>0.489833717104838</v>
@@ -11112,7 +11112,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>0.6895562858115393</v>
+        <v>0.6895562858115392</v>
       </c>
       <c r="C414">
         <v>1.067278090064654</v>
@@ -11124,7 +11124,7 @@
         <v>0.8249417219836286</v>
       </c>
       <c r="F414">
-        <v>0.6212339930337659</v>
+        <v>0.621233993033766</v>
       </c>
       <c r="G414">
         <v>0.844003618093303</v>
@@ -11141,10 +11141,10 @@
         <v>0.7098561773363077</v>
       </c>
       <c r="C415">
-        <v>0.9183934237954267</v>
+        <v>0.9183934237954268</v>
       </c>
       <c r="D415">
-        <v>0.4296243988661082</v>
+        <v>0.4296243988661084</v>
       </c>
       <c r="E415">
         <v>0.7409602610640099</v>
@@ -11164,13 +11164,13 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>0.7098561773363078</v>
+        <v>0.7098561773363077</v>
       </c>
       <c r="C416">
-        <v>0.9183934237954264</v>
+        <v>0.9183934237954267</v>
       </c>
       <c r="D416">
-        <v>0.4296243988661082</v>
+        <v>0.4296243988661084</v>
       </c>
       <c r="E416">
         <v>0.7409602610640099</v>
@@ -11182,7 +11182,7 @@
         <v>0.7132411890919835</v>
       </c>
       <c r="H416">
-        <v>0.6827275559570528</v>
+        <v>0.6827275559570529</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11193,7 +11193,7 @@
         <v>0.6781304868752022</v>
       </c>
       <c r="C417">
-        <v>0.7453442718612064</v>
+        <v>0.7453442718612063</v>
       </c>
       <c r="D417">
         <v>0.4978078328350569</v>
@@ -11202,7 +11202,7 @@
         <v>0.6477830808295907</v>
       </c>
       <c r="F417">
-        <v>0.5840183854605979</v>
+        <v>0.5840183854605978</v>
       </c>
       <c r="G417">
         <v>0.6123593373603324</v>
@@ -11216,19 +11216,19 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.6781304868752022</v>
+        <v>0.6781304868752021</v>
       </c>
       <c r="C418">
-        <v>0.7453442718612066</v>
+        <v>0.7453442718612064</v>
       </c>
       <c r="D418">
-        <v>0.4978078328350568</v>
+        <v>0.4978078328350569</v>
       </c>
       <c r="E418">
         <v>0.6477830808295907</v>
       </c>
       <c r="F418">
-        <v>0.5840183854605979</v>
+        <v>0.5840183854605978</v>
       </c>
       <c r="G418">
         <v>0.6123593373603324</v>
@@ -11254,10 +11254,10 @@
         <v>0.717170237846907</v>
       </c>
       <c r="F419">
-        <v>0.6205843309040393</v>
+        <v>0.6205843309040392</v>
       </c>
       <c r="G419">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="H419">
         <v>0.6870937837179789</v>
@@ -11268,7 +11268,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>0.6504300884694464</v>
+        <v>0.6504300884694465</v>
       </c>
       <c r="C420">
         <v>0.8456515321864362</v>
@@ -11297,7 +11297,7 @@
         <v>0.6828142499303624</v>
       </c>
       <c r="C421">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="D421">
         <v>0.7705130437063474</v>
@@ -11306,10 +11306,10 @@
         <v>0.6439970861749752</v>
       </c>
       <c r="F421">
-        <v>0.6455816928407861</v>
+        <v>0.645581692840786</v>
       </c>
       <c r="G421">
-        <v>0.6403746397834135</v>
+        <v>0.6403746397834136</v>
       </c>
       <c r="H421">
         <v>0.6206630285939774</v>
@@ -11323,7 +11323,7 @@
         <v>0.6828142499303624</v>
       </c>
       <c r="C422">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="D422">
         <v>0.7705130437063474</v>
@@ -11346,7 +11346,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>0.6504300884694465</v>
+        <v>0.6504300884694466</v>
       </c>
       <c r="C423">
         <v>0.8456515321864362</v>
@@ -11361,7 +11361,7 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="G423">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="H423">
         <v>0.687093783717979</v>
@@ -11372,7 +11372,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>0.6504300884694465</v>
+        <v>0.6504300884694466</v>
       </c>
       <c r="C424">
         <v>0.8456515321864361</v>
@@ -11381,13 +11381,13 @@
         <v>0.7130826756140649</v>
       </c>
       <c r="E424">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="F424">
         <v>0.6205843309040393</v>
       </c>
       <c r="G424">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="H424">
         <v>0.6870937837179789</v>
@@ -11401,7 +11401,7 @@
         <v>0.6828142499303624</v>
       </c>
       <c r="C425">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="D425">
         <v>0.7705130437063474</v>
@@ -11416,7 +11416,7 @@
         <v>0.6403746397834136</v>
       </c>
       <c r="H425">
-        <v>0.6206630285939774</v>
+        <v>0.6206630285939775</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11433,10 +11433,10 @@
         <v>0.7130826756140648</v>
       </c>
       <c r="E426">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="F426">
-        <v>0.6205843309040393</v>
+        <v>0.6205843309040392</v>
       </c>
       <c r="G426">
         <v>0.7596351007779069</v>
@@ -11465,7 +11465,7 @@
         <v>0.6015004762004682</v>
       </c>
       <c r="G427">
-        <v>0.7816370757978086</v>
+        <v>0.7816370757978085</v>
       </c>
       <c r="H427">
         <v>0.708061483282331</v>
@@ -11491,7 +11491,7 @@
         <v>0.6015004762004681</v>
       </c>
       <c r="G428">
-        <v>0.7816370757978083</v>
+        <v>0.7816370757978084</v>
       </c>
       <c r="H428">
         <v>0.708061483282331</v>
@@ -11502,7 +11502,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>0.6504300884694465</v>
+        <v>0.6504300884694466</v>
       </c>
       <c r="C429">
         <v>0.8456515321864361</v>
@@ -11511,13 +11511,13 @@
         <v>0.7130826756140649</v>
       </c>
       <c r="E429">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="F429">
-        <v>0.6205843309040393</v>
+        <v>0.6205843309040392</v>
       </c>
       <c r="G429">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779071</v>
       </c>
       <c r="H429">
         <v>0.6870937837179789</v>
@@ -11543,7 +11543,7 @@
         <v>0.6205843309040393</v>
       </c>
       <c r="G430">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="H430">
         <v>0.6870937837179789</v>
@@ -11554,10 +11554,10 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>0.6828142499303624</v>
+        <v>0.6828142499303625</v>
       </c>
       <c r="C431">
-        <v>0.6298328249510357</v>
+        <v>0.6298328249510355</v>
       </c>
       <c r="D431">
         <v>0.7705130437063474</v>
@@ -11572,7 +11572,7 @@
         <v>0.6403746397834136</v>
       </c>
       <c r="H431">
-        <v>0.6206630285939774</v>
+        <v>0.6206630285939775</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11589,7 +11589,7 @@
         <v>0.7130826756140649</v>
       </c>
       <c r="E432">
-        <v>0.717170237846907</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="F432">
         <v>0.6205843309040392</v>
@@ -11635,7 +11635,7 @@
         <v>0.6499975216569618</v>
       </c>
       <c r="C434">
-        <v>0.5987715097363329</v>
+        <v>0.5987715097363328</v>
       </c>
       <c r="D434">
         <v>0.5284322543872585</v>
@@ -11647,7 +11647,7 @@
         <v>0.6001172460564408</v>
       </c>
       <c r="G434">
-        <v>0.5544923112926143</v>
+        <v>0.5544923112926144</v>
       </c>
       <c r="H434">
         <v>0.5645377270830255</v>
@@ -11667,13 +11667,13 @@
         <v>0.7130826756140649</v>
       </c>
       <c r="E435">
-        <v>0.7171702378469069</v>
+        <v>0.7171702378469068</v>
       </c>
       <c r="F435">
         <v>0.6205843309040393</v>
       </c>
       <c r="G435">
-        <v>0.759635100777907</v>
+        <v>0.7596351007779069</v>
       </c>
       <c r="H435">
         <v>0.6870937837179789</v>
@@ -11699,7 +11699,7 @@
         <v>0.5704179546032245</v>
       </c>
       <c r="G436">
-        <v>0.5864673621221335</v>
+        <v>0.5864673621221336</v>
       </c>
       <c r="H436">
         <v>0.6114326191917028</v>
@@ -11713,16 +11713,16 @@
         <v>0.4710346669389148</v>
       </c>
       <c r="C437">
-        <v>0.53941434705974</v>
+        <v>0.5394143470597401</v>
       </c>
       <c r="D437">
         <v>0.4993663947234804</v>
       </c>
       <c r="E437">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F437">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="G437">
         <v>0.4777743323404409</v>
@@ -11739,22 +11739,22 @@
         <v>0.4710346669389147</v>
       </c>
       <c r="C438">
-        <v>0.5394143470597401</v>
+        <v>0.5394143470597402</v>
       </c>
       <c r="D438">
         <v>0.4993663947234804</v>
       </c>
       <c r="E438">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F438">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="G438">
         <v>0.4777743323404409</v>
       </c>
       <c r="H438">
-        <v>0.4615898386433078</v>
+        <v>0.4615898386433079</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11765,16 +11765,16 @@
         <v>0.4710346669389147</v>
       </c>
       <c r="C439">
-        <v>0.53941434705974</v>
+        <v>0.5394143470597401</v>
       </c>
       <c r="D439">
         <v>0.4993663947234804</v>
       </c>
       <c r="E439">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F439">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="G439">
         <v>0.4777743323404409</v>
@@ -11797,7 +11797,7 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="E440">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F440">
         <v>0.4395302218645255</v>
@@ -11806,7 +11806,7 @@
         <v>0.4777743323404409</v>
       </c>
       <c r="H440">
-        <v>0.4615898386433077</v>
+        <v>0.4615898386433078</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11823,7 +11823,7 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="E441">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F441">
         <v>0.4395302218645256</v>
@@ -11843,7 +11843,7 @@
         <v>0.4823746386984163</v>
       </c>
       <c r="C442">
-        <v>0.4988462559569092</v>
+        <v>0.4988462559569093</v>
       </c>
       <c r="D442">
         <v>0.5110235106703358</v>
@@ -11852,7 +11852,7 @@
         <v>0.4835922248794947</v>
       </c>
       <c r="F442">
-        <v>0.4492549147231804</v>
+        <v>0.4492549147231803</v>
       </c>
       <c r="G442">
         <v>0.4613433841567446</v>
@@ -11884,7 +11884,7 @@
         <v>0.4777743323404408</v>
       </c>
       <c r="H443">
-        <v>0.4615898386433078</v>
+        <v>0.4615898386433079</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11895,16 +11895,16 @@
         <v>0.4710346669389147</v>
       </c>
       <c r="C444">
-        <v>0.5394143470597401</v>
+        <v>0.5394143470597402</v>
       </c>
       <c r="D444">
         <v>0.4993663947234804</v>
       </c>
       <c r="E444">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F444">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="G444">
         <v>0.4777743323404409</v>
@@ -11927,7 +11927,7 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="E445">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F445">
         <v>0.4395302218645255</v>
@@ -11953,10 +11953,10 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="E446">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F446">
-        <v>0.4395302218645256</v>
+        <v>0.4395302218645255</v>
       </c>
       <c r="G446">
         <v>0.4777743323404409</v>
@@ -11979,7 +11979,7 @@
         <v>0.4993663947234804</v>
       </c>
       <c r="E447">
-        <v>0.4846307744038076</v>
+        <v>0.4846307744038075</v>
       </c>
       <c r="F447">
         <v>0.4395302218645255</v>
@@ -12005,13 +12005,13 @@
         <v>0.3036443077236688</v>
       </c>
       <c r="E448">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="F448">
         <v>0.7388722972159346</v>
       </c>
       <c r="G448">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H448">
         <v>0.8225099575299957</v>
@@ -12028,19 +12028,19 @@
         <v>1.055542259668882</v>
       </c>
       <c r="D449">
-        <v>0.3036443077236687</v>
+        <v>0.3036443077236688</v>
       </c>
       <c r="E449">
-        <v>0.8807580115014422</v>
+        <v>0.8807580115014421</v>
       </c>
       <c r="F449">
         <v>0.7388722972159346</v>
       </c>
       <c r="G449">
-        <v>0.7886695732751895</v>
+        <v>0.7886695732751894</v>
       </c>
       <c r="H449">
-        <v>0.8225099575299956</v>
+        <v>0.8225099575299957</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12057,13 +12057,13 @@
         <v>0.3036443077236688</v>
       </c>
       <c r="E450">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="F450">
         <v>0.7388722972159346</v>
       </c>
       <c r="G450">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H450">
         <v>0.8225099575299957</v>
@@ -12074,25 +12074,25 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>0.8119616627420947</v>
+        <v>0.8119616627420946</v>
       </c>
       <c r="C451">
         <v>1.055542259668882</v>
       </c>
       <c r="D451">
-        <v>0.3036443077236688</v>
+        <v>0.3036443077236689</v>
       </c>
       <c r="E451">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="F451">
         <v>0.7388722972159346</v>
       </c>
       <c r="G451">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H451">
-        <v>0.8225099575299956</v>
+        <v>0.8225099575299958</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12109,13 +12109,13 @@
         <v>0.3036443077236688</v>
       </c>
       <c r="E452">
-        <v>0.8807580115014423</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="F452">
         <v>0.7388722972159345</v>
       </c>
       <c r="G452">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H452">
         <v>0.8225099575299958</v>
@@ -12141,10 +12141,10 @@
         <v>0.7388722972159346</v>
       </c>
       <c r="G453">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H453">
-        <v>0.8225099575299957</v>
+        <v>0.8225099575299958</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12155,13 +12155,13 @@
         <v>0.6134889754907852</v>
       </c>
       <c r="C454">
-        <v>0.9261519207056204</v>
+        <v>0.9261519207056202</v>
       </c>
       <c r="D454">
         <v>0.4864885629388355</v>
       </c>
       <c r="E454">
-        <v>0.7300883923524628</v>
+        <v>0.7300883923524627</v>
       </c>
       <c r="F454">
         <v>0.5673324730291393</v>
@@ -12170,7 +12170,7 @@
         <v>0.7472148840279973</v>
       </c>
       <c r="H454">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12181,13 +12181,13 @@
         <v>0.6134889754907852</v>
       </c>
       <c r="C455">
-        <v>0.9261519207056204</v>
+        <v>0.9261519207056202</v>
       </c>
       <c r="D455">
         <v>0.4864885629388356</v>
       </c>
       <c r="E455">
-        <v>0.7300883923524628</v>
+        <v>0.7300883923524627</v>
       </c>
       <c r="F455">
         <v>0.5673324730291393</v>
@@ -12196,7 +12196,7 @@
         <v>0.7472148840279973</v>
       </c>
       <c r="H455">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12207,7 +12207,7 @@
         <v>0.6134889754907853</v>
       </c>
       <c r="C456">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D456">
         <v>0.4864885629388356</v>
@@ -12222,7 +12222,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H456">
-        <v>0.6857902605931275</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12233,13 +12233,13 @@
         <v>0.6134889754907852</v>
       </c>
       <c r="C457">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D457">
         <v>0.4864885629388356</v>
       </c>
       <c r="E457">
-        <v>0.7300883923524628</v>
+        <v>0.7300883923524627</v>
       </c>
       <c r="F457">
         <v>0.5673324730291393</v>
@@ -12248,7 +12248,7 @@
         <v>0.7472148840279973</v>
       </c>
       <c r="H457">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12259,13 +12259,13 @@
         <v>0.6134889754907853</v>
       </c>
       <c r="C458">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D458">
         <v>0.4864885629388356</v>
       </c>
       <c r="E458">
-        <v>0.7300883923524629</v>
+        <v>0.7300883923524628</v>
       </c>
       <c r="F458">
         <v>0.5673324730291393</v>
@@ -12274,7 +12274,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H458">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12285,13 +12285,13 @@
         <v>0.6134889754907853</v>
       </c>
       <c r="C459">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D459">
         <v>0.4864885629388355</v>
       </c>
       <c r="E459">
-        <v>0.7300883923524629</v>
+        <v>0.7300883923524628</v>
       </c>
       <c r="F459">
         <v>0.5673324730291393</v>
@@ -12300,7 +12300,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H459">
-        <v>0.6857902605931275</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12311,7 +12311,7 @@
         <v>0.6134889754907853</v>
       </c>
       <c r="C460">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D460">
         <v>0.4864885629388356</v>
@@ -12326,7 +12326,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H460">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12337,7 +12337,7 @@
         <v>0.6134889754907853</v>
       </c>
       <c r="C461">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D461">
         <v>0.4864885629388356</v>
@@ -12352,7 +12352,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H461">
-        <v>0.6857902605931275</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12363,7 +12363,7 @@
         <v>0.6134889754907852</v>
       </c>
       <c r="C462">
-        <v>0.9261519207056205</v>
+        <v>0.9261519207056204</v>
       </c>
       <c r="D462">
         <v>0.4864885629388356</v>
@@ -12378,7 +12378,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H462">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12395,7 +12395,7 @@
         <v>0.6157283037505972</v>
       </c>
       <c r="E463">
-        <v>0.7540093839204006</v>
+        <v>0.7540093839204005</v>
       </c>
       <c r="F463">
         <v>0.6015004762004682</v>
@@ -12421,13 +12421,13 @@
         <v>0.6157283037505972</v>
       </c>
       <c r="E464">
-        <v>0.7540093839204006</v>
+        <v>0.7540093839204005</v>
       </c>
       <c r="F464">
         <v>0.6015004762004681</v>
       </c>
       <c r="G464">
-        <v>0.7816370757978085</v>
+        <v>0.7816370757978084</v>
       </c>
       <c r="H464">
         <v>0.708061483282331</v>
@@ -12447,13 +12447,13 @@
         <v>0.5284322543872585</v>
       </c>
       <c r="E465">
-        <v>0.5925487994097499</v>
+        <v>0.5925487994097498</v>
       </c>
       <c r="F465">
         <v>0.6001172460564408</v>
       </c>
       <c r="G465">
-        <v>0.5544923112926143</v>
+        <v>0.5544923112926144</v>
       </c>
       <c r="H465">
         <v>0.5645377270830255</v>
@@ -12502,10 +12502,10 @@
         <v>0.7540093839204006</v>
       </c>
       <c r="F467">
-        <v>0.6015004762004682</v>
+        <v>0.6015004762004681</v>
       </c>
       <c r="G467">
-        <v>0.7816370757978085</v>
+        <v>0.7816370757978084</v>
       </c>
       <c r="H467">
         <v>0.708061483282331</v>
@@ -12516,7 +12516,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>0.8119616627420946</v>
+        <v>0.8119616627420945</v>
       </c>
       <c r="C468">
         <v>1.055542259668882</v>
@@ -12531,10 +12531,10 @@
         <v>0.7388722972159345</v>
       </c>
       <c r="G468">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H468">
-        <v>0.8225099575299957</v>
+        <v>0.8225099575299958</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12542,7 +12542,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>0.8119616627420947</v>
+        <v>0.8119616627420946</v>
       </c>
       <c r="C469">
         <v>1.055542259668882</v>
@@ -12557,7 +12557,7 @@
         <v>0.7388722972159347</v>
       </c>
       <c r="G469">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H469">
         <v>0.8225099575299958</v>
@@ -12574,16 +12574,16 @@
         <v>1.055542259668882</v>
       </c>
       <c r="D470">
-        <v>0.3036443077236688</v>
+        <v>0.3036443077236689</v>
       </c>
       <c r="E470">
-        <v>0.8807580115014424</v>
+        <v>0.8807580115014422</v>
       </c>
       <c r="F470">
         <v>0.7388722972159347</v>
       </c>
       <c r="G470">
-        <v>0.7886695732751896</v>
+        <v>0.7886695732751895</v>
       </c>
       <c r="H470">
         <v>0.8225099575299957</v>
@@ -12594,7 +12594,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>0.6512296973944073</v>
+        <v>0.6512296973944074</v>
       </c>
       <c r="C471">
         <v>0.9255683238798429</v>
@@ -12603,13 +12603,13 @@
         <v>0.6157283037505972</v>
       </c>
       <c r="E471">
-        <v>0.7540093839204007</v>
+        <v>0.7540093839204005</v>
       </c>
       <c r="F471">
         <v>0.6015004762004682</v>
       </c>
       <c r="G471">
-        <v>0.7816370757978086</v>
+        <v>0.7816370757978085</v>
       </c>
       <c r="H471">
         <v>0.708061483282331</v>
@@ -12623,7 +12623,7 @@
         <v>0.6134889754907852</v>
       </c>
       <c r="C472">
-        <v>0.9261519207056206</v>
+        <v>0.9261519207056205</v>
       </c>
       <c r="D472">
         <v>0.4864885629388356</v>
@@ -12638,7 +12638,7 @@
         <v>0.7472148840279974</v>
       </c>
       <c r="H472">
-        <v>0.6857902605931274</v>
+        <v>0.6857902605931276</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12646,7 +12646,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.6508137014234251</v>
+        <v>0.650813701423425</v>
       </c>
       <c r="C473">
         <v>0.6585182434426055</v>
@@ -12672,7 +12672,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>0.6508137014234251</v>
+        <v>0.650813701423425</v>
       </c>
       <c r="C474">
         <v>0.6585182434426057</v>
@@ -12710,7 +12710,7 @@
         <v>0.6634746599665301</v>
       </c>
       <c r="F475">
-        <v>0.5704179546032244</v>
+        <v>0.5704179546032245</v>
       </c>
       <c r="G475">
         <v>0.5864673621221335</v>
@@ -12727,7 +12727,7 @@
         <v>0.4658015212306771</v>
       </c>
       <c r="C476">
-        <v>0.5745424779759268</v>
+        <v>0.5745424779759267</v>
       </c>
       <c r="D476">
         <v>0.3776917744958644</v>
@@ -12762,13 +12762,13 @@
         <v>0.4861818098388123</v>
       </c>
       <c r="F477">
-        <v>0.433108021852545</v>
+        <v>0.4331080218525449</v>
       </c>
       <c r="G477">
         <v>0.4866058283899052</v>
       </c>
       <c r="H477">
-        <v>0.4607985014093475</v>
+        <v>0.4607985014093474</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>0.7448956667372948</v>
       </c>
       <c r="H478">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12811,16 +12811,16 @@
         <v>0.7937921956662655</v>
       </c>
       <c r="E479">
-        <v>0.8063158001804377</v>
+        <v>0.8063158001804376</v>
       </c>
       <c r="F479">
-        <v>0.7885417921909125</v>
+        <v>0.7885417921909124</v>
       </c>
       <c r="G479">
         <v>0.8083890610708528</v>
       </c>
       <c r="H479">
-        <v>0.744694767504904</v>
+        <v>0.7446947675049038</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12831,13 +12831,13 @@
         <v>0.9528159673978212</v>
       </c>
       <c r="C480">
-        <v>0.8917959111902543</v>
+        <v>0.8917959111902541</v>
       </c>
       <c r="D480">
         <v>0.8351932383732339</v>
       </c>
       <c r="E480">
-        <v>0.8414357918881704</v>
+        <v>0.8414357918881702</v>
       </c>
       <c r="F480">
         <v>0.842500401959538</v>
@@ -12863,16 +12863,16 @@
         <v>0.8999549932864713</v>
       </c>
       <c r="E481">
-        <v>0.7999808605870476</v>
+        <v>0.7999808605870475</v>
       </c>
       <c r="F481">
-        <v>0.8580633277856055</v>
+        <v>0.8580633277856057</v>
       </c>
       <c r="G481">
         <v>0.7448956667372947</v>
       </c>
       <c r="H481">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12889,16 +12889,16 @@
         <v>0.8999549932864713</v>
       </c>
       <c r="E482">
-        <v>0.7999808605870479</v>
+        <v>0.7999808605870476</v>
       </c>
       <c r="F482">
-        <v>0.8580633277856055</v>
+        <v>0.8580633277856057</v>
       </c>
       <c r="G482">
         <v>0.7448956667372948</v>
       </c>
       <c r="H482">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>0.7448956667372948</v>
       </c>
       <c r="H483">
-        <v>0.7391728620102063</v>
+        <v>0.7391728620102062</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12961,13 +12961,13 @@
         <v>0.9528159673978212</v>
       </c>
       <c r="C485">
-        <v>0.8917959111902543</v>
+        <v>0.8917959111902541</v>
       </c>
       <c r="D485">
         <v>0.8351932383732339</v>
       </c>
       <c r="E485">
-        <v>0.8414357918881704</v>
+        <v>0.8414357918881703</v>
       </c>
       <c r="F485">
         <v>0.842500401959538</v>
@@ -13002,7 +13002,7 @@
         <v>0.819853100254991</v>
       </c>
       <c r="H486">
-        <v>0.7654523516937584</v>
+        <v>0.7654523516937582</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13010,16 +13010,16 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.9283766343442726</v>
+        <v>0.9283766343442725</v>
       </c>
       <c r="C487">
-        <v>0.8972414952623512</v>
+        <v>0.8972414952623511</v>
       </c>
       <c r="D487">
         <v>0.6817409555155939</v>
       </c>
       <c r="E487">
-        <v>0.8180838702445803</v>
+        <v>0.8180838702445801</v>
       </c>
       <c r="F487">
         <v>0.8143853677716173</v>
@@ -13028,7 +13028,7 @@
         <v>0.7944948620002152</v>
       </c>
       <c r="H487">
-        <v>0.7512032405118554</v>
+        <v>0.7512032405118553</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13036,22 +13036,22 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.8708729277907591</v>
+        <v>0.870872927790759</v>
       </c>
       <c r="C488">
         <v>0.931254080841638</v>
       </c>
       <c r="D488">
-        <v>0.6728583194982414</v>
+        <v>0.6728583194982413</v>
       </c>
       <c r="E488">
         <v>0.8227661119498142</v>
       </c>
       <c r="F488">
-        <v>0.7719515013385964</v>
+        <v>0.7719515013385965</v>
       </c>
       <c r="G488">
-        <v>0.7765076887648265</v>
+        <v>0.7765076887648266</v>
       </c>
       <c r="H488">
         <v>0.7581905967479476</v>
@@ -13062,7 +13062,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.8708729277907592</v>
+        <v>0.870872927790759</v>
       </c>
       <c r="C489">
         <v>0.931254080841638</v>
@@ -13071,7 +13071,7 @@
         <v>0.6728583194982414</v>
       </c>
       <c r="E489">
-        <v>0.8227661119498142</v>
+        <v>0.8227661119498141</v>
       </c>
       <c r="F489">
         <v>0.7719515013385965</v>
@@ -13097,16 +13097,16 @@
         <v>0.8614947237217121</v>
       </c>
       <c r="E490">
-        <v>0.9635210496543176</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="F490">
-        <v>0.9047173797148154</v>
+        <v>0.9047173797148156</v>
       </c>
       <c r="G490">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="H490">
-        <v>0.8995969509298634</v>
+        <v>0.8995969509298632</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13123,13 +13123,13 @@
         <v>0.7740888236577632</v>
       </c>
       <c r="E491">
-        <v>0.9969943101007239</v>
+        <v>0.9969943101007233</v>
       </c>
       <c r="F491">
-        <v>0.8933887922251891</v>
+        <v>0.8933887922251893</v>
       </c>
       <c r="G491">
-        <v>0.9923146121228632</v>
+        <v>0.992314612122863</v>
       </c>
       <c r="H491">
         <v>0.9228883455214174</v>
@@ -13149,16 +13149,16 @@
         <v>0.8614947237217122</v>
       </c>
       <c r="E492">
-        <v>0.9635210496543175</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="F492">
-        <v>0.9047173797148153</v>
+        <v>0.9047173797148156</v>
       </c>
       <c r="G492">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="H492">
-        <v>0.8995969509298635</v>
+        <v>0.8995969509298634</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13175,16 +13175,16 @@
         <v>0.8614947237217121</v>
       </c>
       <c r="E493">
-        <v>0.9635210496543175</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="F493">
-        <v>0.9047173797148151</v>
+        <v>0.9047173797148154</v>
       </c>
       <c r="G493">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="H493">
-        <v>0.8995969509298634</v>
+        <v>0.8995969509298632</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13201,13 +13201,13 @@
         <v>0.861494723721712</v>
       </c>
       <c r="E494">
-        <v>0.9635210496543175</v>
+        <v>0.9635210496543173</v>
       </c>
       <c r="F494">
-        <v>0.9047173797148154</v>
+        <v>0.9047173797148156</v>
       </c>
       <c r="G494">
-        <v>0.9599062598189784</v>
+        <v>0.9599062598189781</v>
       </c>
       <c r="H494">
         <v>0.8995969509298634</v>
@@ -13227,7 +13227,7 @@
         <v>0.3600641679098052</v>
       </c>
       <c r="E495">
-        <v>0.9570737089807837</v>
+        <v>0.9570737089807836</v>
       </c>
       <c r="F495">
         <v>0.8142684032459542</v>
@@ -13236,7 +13236,7 @@
         <v>0.8608928366612996</v>
       </c>
       <c r="H495">
-        <v>0.8763441398146101</v>
+        <v>0.87634413981461</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13244,7 +13244,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.952320883677048</v>
+        <v>0.9523208836770477</v>
       </c>
       <c r="C496">
         <v>1.226087594705215</v>
@@ -13262,7 +13262,7 @@
         <v>0.9843378042706168</v>
       </c>
       <c r="H496">
-        <v>0.9408444102371724</v>
+        <v>0.9408444102371722</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13270,7 +13270,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>0.9352947561249125</v>
+        <v>0.9352947561249124</v>
       </c>
       <c r="C497">
         <v>1.129840544045963</v>
@@ -13279,7 +13279,7 @@
         <v>0.3600641679098052</v>
       </c>
       <c r="E497">
-        <v>0.9570737089807837</v>
+        <v>0.9570737089807836</v>
       </c>
       <c r="F497">
         <v>0.8142684032459542</v>
@@ -13288,7 +13288,7 @@
         <v>0.8608928366612993</v>
       </c>
       <c r="H497">
-        <v>0.87634413981461</v>
+        <v>0.8763441398146099</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13296,19 +13296,19 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.9181009485535659</v>
+        <v>0.9181009485535657</v>
       </c>
       <c r="C498">
         <v>1.186705576055944</v>
       </c>
       <c r="D498">
-        <v>0.5422915422904784</v>
+        <v>0.5422915422904783</v>
       </c>
       <c r="E498">
         <v>0.9966949583077225</v>
       </c>
       <c r="F498">
-        <v>0.817753620634885</v>
+        <v>0.8177536206348851</v>
       </c>
       <c r="G498">
         <v>0.9000409644257666</v>
@@ -13322,7 +13322,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>0.9181009485535658</v>
+        <v>0.9181009485535657</v>
       </c>
       <c r="C499">
         <v>1.186705576055944</v>
@@ -13340,7 +13340,7 @@
         <v>0.9000409644257666</v>
       </c>
       <c r="H499">
-        <v>0.9216171659302242</v>
+        <v>0.9216171659302241</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13348,13 +13348,13 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>0.9181009485535658</v>
+        <v>0.9181009485535656</v>
       </c>
       <c r="C500">
         <v>1.186705576055944</v>
       </c>
       <c r="D500">
-        <v>0.5422915422904784</v>
+        <v>0.5422915422904782</v>
       </c>
       <c r="E500">
         <v>0.9966949583077224</v>
@@ -13374,7 +13374,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>0.9175355398153318</v>
+        <v>0.9175355398153316</v>
       </c>
       <c r="C501">
         <v>0.9594536902463728</v>
@@ -13383,16 +13383,16 @@
         <v>0.5851769129697665</v>
       </c>
       <c r="E501">
-        <v>0.8633268881388756</v>
+        <v>0.8633268881388755</v>
       </c>
       <c r="F501">
-        <v>0.8112507540966647</v>
+        <v>0.8112507540966648</v>
       </c>
       <c r="G501">
-        <v>0.776921433113037</v>
+        <v>0.7769214331130369</v>
       </c>
       <c r="H501">
-        <v>0.7946893933472926</v>
+        <v>0.7946893933472923</v>
       </c>
     </row>
   </sheetData>
